--- a/OpenAI/Document/OpenAI.xlsx
+++ b/OpenAI/Document/OpenAI.xlsx
@@ -12,9 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
-    <sheet name="OpenAI" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary_Capabilities" sheetId="1" r:id="rId1"/>
+    <sheet name="OpenAI" sheetId="4" r:id="rId2"/>
+    <sheet name="DeepAI" sheetId="2" r:id="rId3"/>
+    <sheet name="AmazonAI" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="114">
   <si>
     <t>Sl No</t>
   </si>
@@ -307,17 +308,83 @@
     <t>https://docs.aws.amazon.com/rekognition/latest/dg/faces.html</t>
   </si>
   <si>
-    <t>Details about OpenAI and capabilities</t>
-  </si>
-  <si>
-    <t>Pricing and license setails</t>
+    <t>https://deepai.org/publication/ehrkit-a-python-natural-language-processing-toolkit-for-electronic-health-record-texts</t>
+  </si>
+  <si>
+    <t>Image Colorization</t>
+  </si>
+  <si>
+    <t>Colorize black and white images or videos using the image colorization. Add color to old family photos and historic images, or bring an old film back to life with colorization.</t>
+  </si>
+  <si>
+    <t>https://deepai.org/machine-learning-model/colorizer</t>
+  </si>
+  <si>
+    <t>OpenAI Capability Analysis</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Capability</t>
+  </si>
+  <si>
+    <t>Capability comparision between OpenAI and its competetor</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Pricing</t>
+  </si>
+  <si>
+    <t>Base models</t>
+  </si>
+  <si>
+    <t>Ada - $0.0008 / 1K tokens
+Babbage - $0.0012 / 1k tokens
+Curie - $0.0060 / 1k tokens
+Davinci - $0.0600 / 1k tokens</t>
+  </si>
+  <si>
+    <t>https://openai.com/api/pricing/</t>
+  </si>
+  <si>
+    <t>DeepAI Capability Analysis</t>
+  </si>
+  <si>
+    <t>AmazonAI Capability Analysis</t>
+  </si>
+  <si>
+    <t>Single Features</t>
+  </si>
+  <si>
+    <t>Starting at $10 / per month</t>
+  </si>
+  <si>
+    <t>Image Analysis</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/rekognition/pricing/</t>
+  </si>
+  <si>
+    <t>First 1 million images - $0.001 / image
+Next 4 million images - $0.0008 / image
+Next 30 million images - $0.006 / image
+Over 35 million images - 0.0004 / image</t>
+  </si>
+  <si>
+    <t>Text Analysis</t>
+  </si>
+  <si>
+    <t>Programming Code Analysis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,19 +414,30 @@
       <family val="3"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -383,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -400,11 +478,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -424,19 +514,2370 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Competetor</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Capabilities</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2692038495188102E-2"/>
+          <c:y val="0.16245370370370371"/>
+          <c:w val="0.899407261592301"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>OpenAI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DeepAI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Amazon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Summary_Capabilities!$D$27,Summary_Capabilities!$F$27,Summary_Capabilities!$H$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-FCDC-4786-834E-581A2E8F38B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1251401951"/>
+        <c:axId val="1251410271"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$3,Summary_Capabilities!$F$3,Summary_Capabilities!$H$3)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$4,Summary_Capabilities!$F$4,Summary_Capabilities!$H$4)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$5,Summary_Capabilities!$F$5,Summary_Capabilities!$H$5)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$6,Summary_Capabilities!$F$6,Summary_Capabilities!$H$6)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$7,Summary_Capabilities!$F$7,Summary_Capabilities!$H$7)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$8,Summary_Capabilities!$F$8,Summary_Capabilities!$H$8)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$9,Summary_Capabilities!$F$9,Summary_Capabilities!$H$9)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$10,Summary_Capabilities!$F$10,Summary_Capabilities!$H$10)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$11,Summary_Capabilities!$F$11,Summary_Capabilities!$H$11)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$12,Summary_Capabilities!$F$12,Summary_Capabilities!$H$12)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$13,Summary_Capabilities!$F$13,Summary_Capabilities!$H$13)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$14,Summary_Capabilities!$F$14,Summary_Capabilities!$H$14)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="12"/>
+                <c:order val="12"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$15,Summary_Capabilities!$F$15,Summary_Capabilities!$H$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="13"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$16,Summary_Capabilities!$F$16,Summary_Capabilities!$H$16)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="14"/>
+                <c:order val="14"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$17,Summary_Capabilities!$F$17,Summary_Capabilities!$H$17)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000E-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="15"/>
+                <c:order val="15"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$18,Summary_Capabilities!$F$18,Summary_Capabilities!$H$18)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000F-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="16"/>
+                <c:order val="16"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$19,Summary_Capabilities!$F$19,Summary_Capabilities!$H$19)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000010-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="17"/>
+                <c:order val="17"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$20,Summary_Capabilities!$F$20,Summary_Capabilities!$H$20)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000011-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="18"/>
+                <c:order val="18"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$21,Summary_Capabilities!$F$21,Summary_Capabilities!$H$21)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000012-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="19"/>
+                <c:order val="19"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$22,Summary_Capabilities!$F$22,Summary_Capabilities!$H$22)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000013-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="20"/>
+                <c:order val="20"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$23,Summary_Capabilities!$F$23,Summary_Capabilities!$H$23)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000014-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="21"/>
+                <c:order val="21"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$24,Summary_Capabilities!$F$24,Summary_Capabilities!$H$24)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000015-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="22"/>
+                <c:order val="22"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$25,Summary_Capabilities!$F$25,Summary_Capabilities!$H$25)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000016-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="23"/>
+                <c:order val="23"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$26,Summary_Capabilities!$F$26,Summary_Capabilities!$H$26)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000017-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1251401951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1251410271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1251410271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1251401951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>619125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>762000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -454,120 +2895,6 @@
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>542925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>685800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Oval 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5105400" y="923925"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>600075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>742950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Oval 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10067925" y="981075"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -612,69 +2939,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Oval 6"/>
+        <xdr:cNvPr id="5" name="Oval 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5105400" y="923925"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>762000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Oval 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7534275" y="2295525"/>
           <a:ext cx="152400" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -716,29 +2986,29 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
+      <xdr:rowOff>600075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>762000</xdr:rowOff>
+      <xdr:rowOff>742950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Oval 8"/>
+        <xdr:cNvPr id="6" name="Oval 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7820025" y="2295525"/>
+          <a:off x="10067925" y="981075"/>
           <a:ext cx="152400" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -773,23 +3043,137 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>542925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>685800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Oval 23"/>
+        <xdr:cNvPr id="7" name="Oval 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5105400" y="4162425"/>
-          <a:ext cx="152400" cy="28575"/>
+          <a:off x="5105400" y="923925"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534275" y="2295525"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7820025" y="2295525"/>
+          <a:ext cx="152400" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -829,18 +3213,18 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Oval 24"/>
+        <xdr:cNvPr id="24" name="Oval 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -886,13 +3270,70 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Oval 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="4162425"/>
+          <a:ext cx="152400" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -943,13 +3384,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1000,13 +3441,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1057,13 +3498,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1114,13 +3555,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1171,13 +3612,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1228,13 +3669,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>352425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1285,13 +3726,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1342,13 +3783,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>523875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1399,13 +3840,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>457200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1416,177 +3857,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10048875" y="5267325"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Oval 36"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5029200" y="6172200"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Oval 37"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7458075" y="6162675"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Oval 38"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10029825" y="6257925"/>
           <a:ext cx="152400" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1628,29 +3898,29 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Oval 39"/>
+        <xdr:cNvPr id="37" name="Oval 36"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="7019925"/>
+          <a:off x="5029200" y="6172200"/>
           <a:ext cx="152400" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1685,22 +3955,22 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Oval 40"/>
+        <xdr:cNvPr id="38" name="Oval 37"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7458075" y="7010400"/>
+          <a:off x="7458075" y="6162675"/>
           <a:ext cx="152400" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1742,12 +4012,183 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Oval 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10029825" y="6257925"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Oval 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="7019925"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Oval 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="7010400"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1798,13 +4239,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1855,13 +4296,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1912,13 +4353,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>466725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1969,13 +4410,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>457200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2026,13 +4467,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2083,13 +4524,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>438150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2140,13 +4581,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2197,13 +4638,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2254,13 +4695,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>428625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2311,13 +4752,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2368,13 +4809,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2425,13 +4866,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>447675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2482,13 +4923,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2539,13 +4980,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2596,13 +5037,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>428625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2653,13 +5094,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2710,13 +5151,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2767,13 +5208,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>352425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2824,13 +5265,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2881,13 +5322,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2904,7 +5345,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -2938,13 +5379,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2955,177 +5396,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10086975" y="13020675"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Oval 63"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5048250" y="13620750"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Oval 64"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7515225" y="13639800"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Oval 65"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10058400" y="13630275"/>
           <a:ext cx="152400" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3167,22 +5437,22 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>323850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Oval 66"/>
+        <xdr:cNvPr id="64" name="Oval 63"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5048250" y="14077950"/>
+          <a:off x="5048250" y="13620750"/>
           <a:ext cx="152400" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3224,22 +5494,22 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
+      <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Oval 67"/>
+        <xdr:cNvPr id="65" name="Oval 64"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7515225" y="14182725"/>
+          <a:off x="7515225" y="13639800"/>
           <a:ext cx="152400" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3279,24 +5549,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="Oval 68"/>
+        <xdr:cNvPr id="66" name="Oval 65"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10086975" y="14201775"/>
+          <a:off x="10058400" y="13630275"/>
           <a:ext cx="152400" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3338,22 +5608,22 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Oval 69"/>
+        <xdr:cNvPr id="67" name="Oval 66"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5048250" y="14668500"/>
+          <a:off x="5048250" y="14077950"/>
           <a:ext cx="152400" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3393,24 +5663,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:rowOff>314325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Oval 70"/>
+        <xdr:cNvPr id="68" name="Oval 67"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543800" y="14744700"/>
+          <a:off x="7515225" y="14182725"/>
           <a:ext cx="152400" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3452,12 +5722,183 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Oval 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10086975" y="14201775"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Oval 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="14668500"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Oval 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="14744700"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>352425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3508,13 +5949,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3565,13 +6006,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3622,13 +6063,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3679,13 +6120,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3736,13 +6177,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3793,13 +6234,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3850,13 +6291,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3907,13 +6348,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>352425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3964,13 +6405,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>409575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4021,13 +6462,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4078,13 +6519,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4135,13 +6576,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4192,13 +6633,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4249,13 +6690,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4306,13 +6747,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4357,6 +6798,207 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Oval 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057775" y="18735675"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Oval 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="18707100"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Oval 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10296525" y="18745200"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4625,11 +7267,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B23"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4640,495 +7282,1498 @@
     <col min="4" max="4" width="10.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="26.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" style="5" customWidth="1"/>
     <col min="9" max="9" width="27.85546875" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="153" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="4" spans="1:9" ht="153" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="7" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="11" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G11" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>68</v>
+      <c r="G16" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="C27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="I3" r:id="rId5"/>
-    <hyperlink ref="E4" r:id="rId6"/>
-    <hyperlink ref="G4" r:id="rId7"/>
-    <hyperlink ref="E5" r:id="rId8"/>
-    <hyperlink ref="G5" r:id="rId9"/>
-    <hyperlink ref="I5" r:id="rId10"/>
-    <hyperlink ref="G6" r:id="rId11"/>
-    <hyperlink ref="I6" r:id="rId12"/>
-    <hyperlink ref="G7" r:id="rId13"/>
-    <hyperlink ref="I7" r:id="rId14"/>
-    <hyperlink ref="E8" r:id="rId15"/>
-    <hyperlink ref="G8" r:id="rId16"/>
-    <hyperlink ref="G9" r:id="rId17"/>
-    <hyperlink ref="I9" r:id="rId18"/>
-    <hyperlink ref="G10" r:id="rId19"/>
-    <hyperlink ref="E11" r:id="rId20"/>
-    <hyperlink ref="G11" r:id="rId21"/>
-    <hyperlink ref="E12" r:id="rId22"/>
-    <hyperlink ref="G12" r:id="rId23"/>
-    <hyperlink ref="I12" r:id="rId24"/>
-    <hyperlink ref="E13" r:id="rId25"/>
-    <hyperlink ref="G13" r:id="rId26"/>
-    <hyperlink ref="E14" r:id="rId27"/>
-    <hyperlink ref="G14" r:id="rId28"/>
-    <hyperlink ref="I14" r:id="rId29"/>
-    <hyperlink ref="E15" r:id="rId30"/>
-    <hyperlink ref="E16" r:id="rId31"/>
-    <hyperlink ref="E17" r:id="rId32"/>
-    <hyperlink ref="E18" r:id="rId33"/>
-    <hyperlink ref="E19" r:id="rId34"/>
-    <hyperlink ref="E20" r:id="rId35"/>
-    <hyperlink ref="E21" r:id="rId36"/>
-    <hyperlink ref="E22" r:id="rId37"/>
-    <hyperlink ref="G22" r:id="rId38" location="facial-recognition"/>
-    <hyperlink ref="I22" r:id="rId39"/>
-    <hyperlink ref="G23" r:id="rId40" location="facial-expression-recognition"/>
-    <hyperlink ref="I23" r:id="rId41"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="E5" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="E6" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="E9" r:id="rId15"/>
+    <hyperlink ref="G9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="E12" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="E13" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="E14" r:id="rId25"/>
+    <hyperlink ref="G14" r:id="rId26"/>
+    <hyperlink ref="E15" r:id="rId27"/>
+    <hyperlink ref="G15" r:id="rId28"/>
+    <hyperlink ref="I15" r:id="rId29"/>
+    <hyperlink ref="E16" r:id="rId30"/>
+    <hyperlink ref="E17" r:id="rId31"/>
+    <hyperlink ref="E18" r:id="rId32"/>
+    <hyperlink ref="E19" r:id="rId33"/>
+    <hyperlink ref="E20" r:id="rId34"/>
+    <hyperlink ref="E21" r:id="rId35"/>
+    <hyperlink ref="E22" r:id="rId36"/>
+    <hyperlink ref="E23" r:id="rId37"/>
+    <hyperlink ref="G23" r:id="rId38" location="facial-recognition"/>
+    <hyperlink ref="I23" r:id="rId39"/>
+    <hyperlink ref="G24" r:id="rId40" location="facial-expression-recognition"/>
+    <hyperlink ref="I24" r:id="rId41"/>
+    <hyperlink ref="G16" r:id="rId42"/>
+    <hyperlink ref="E25" r:id="rId43"/>
+    <hyperlink ref="G25" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId42"/>
-  <drawing r:id="rId43"/>
+  <pageSetup orientation="portrait" r:id="rId45"/>
+  <drawing r:id="rId46"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26" style="6" customWidth="1"/>
+    <col min="4" max="4" width="67.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>92</v>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="E7" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="E10" r:id="rId6"/>
+    <hyperlink ref="E11" r:id="rId7"/>
+    <hyperlink ref="E12" r:id="rId8"/>
+    <hyperlink ref="E13" r:id="rId9"/>
+    <hyperlink ref="E14" r:id="rId10"/>
+    <hyperlink ref="E15" r:id="rId11"/>
+    <hyperlink ref="E16" r:id="rId12"/>
+    <hyperlink ref="E17" r:id="rId13"/>
+    <hyperlink ref="E18" r:id="rId14"/>
+    <hyperlink ref="E19" r:id="rId15"/>
+    <hyperlink ref="E20" r:id="rId16"/>
+    <hyperlink ref="E21" r:id="rId17"/>
+    <hyperlink ref="E22" r:id="rId18"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26" style="6" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>93</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E6" r:id="rId2"/>
+    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="E9" r:id="rId5"/>
+    <hyperlink ref="E10" r:id="rId6"/>
+    <hyperlink ref="E11" r:id="rId7"/>
+    <hyperlink ref="E12" r:id="rId8"/>
+    <hyperlink ref="E13" r:id="rId9"/>
+    <hyperlink ref="E14" r:id="rId10"/>
+    <hyperlink ref="E15" r:id="rId11"/>
+    <hyperlink ref="E16" r:id="rId12"/>
+    <hyperlink ref="E17" r:id="rId13"/>
+    <hyperlink ref="E18" r:id="rId14" location="facial-recognition"/>
+    <hyperlink ref="E19" r:id="rId15" location="facial-expression-recognition"/>
+    <hyperlink ref="E20" r:id="rId16"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26" style="6" customWidth="1"/>
+    <col min="4" max="4" width="69" style="6" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="E7" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="E9" r:id="rId6"/>
+    <hyperlink ref="E10" r:id="rId7"/>
+    <hyperlink ref="E11" r:id="rId8"/>
+    <hyperlink ref="E12" r:id="rId9"/>
+    <hyperlink ref="E13" r:id="rId10"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/OpenAI/Document/OpenAI.xlsx
+++ b/OpenAI/Document/OpenAI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_Capabilities" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="120">
   <si>
     <t>Sl No</t>
   </si>
@@ -368,16 +368,35 @@
     <t>https://aws.amazon.com/rekognition/pricing/</t>
   </si>
   <si>
-    <t>First 1 million images - $0.001 / image
+    <t>Text Analysis</t>
+  </si>
+  <si>
+    <t>Programming Code Analysis</t>
+  </si>
+  <si>
+    <t>Starting from
+First 1 million images - $0.001 / image
 Next 4 million images - $0.0008 / image
 Next 30 million images - $0.006 / image
 Over 35 million images - 0.0004 / image</t>
   </si>
   <si>
-    <t>Text Analysis</t>
-  </si>
-  <si>
-    <t>Programming Code Analysis</t>
+    <t>Scene Recognition</t>
+  </si>
+  <si>
+    <t>Detect and label the apparent location of the scene within a given image or video</t>
+  </si>
+  <si>
+    <t>https://deepai.org/api-docs/#scene-recognition</t>
+  </si>
+  <si>
+    <t>Content moderation</t>
+  </si>
+  <si>
+    <t>The content moderation is analyzes images and videos to detect the presence of adult content, hate symbols, guns, and offensive words found amongst text within images</t>
+  </si>
+  <si>
+    <t>https://deepai.org/api-docs/#content-moderation</t>
   </si>
 </sst>
 </file>
@@ -487,13 +506,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -641,18 +660,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Summary_Capabilities!$D$27,Summary_Capabilities!$F$27,Summary_Capabilities!$H$27)</c:f>
+              <c:f>(Summary_Capabilities!$D$29,Summary_Capabilities!$F$29,Summary_Capabilities!$H$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>18.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.5</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,7 +771,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -775,7 +794,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$4,Summary_Capabilities!$F$4,Summary_Capabilities!$H$4)</c15:sqref>
@@ -788,7 +807,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -811,7 +830,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -834,7 +853,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$5,Summary_Capabilities!$F$5,Summary_Capabilities!$H$5)</c15:sqref>
@@ -847,7 +866,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -870,7 +889,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -893,7 +912,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$6,Summary_Capabilities!$F$6,Summary_Capabilities!$H$6)</c15:sqref>
@@ -906,7 +925,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -929,7 +948,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -952,7 +971,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$7,Summary_Capabilities!$F$7,Summary_Capabilities!$H$7)</c15:sqref>
@@ -965,7 +984,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -988,7 +1007,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -1011,7 +1030,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$8,Summary_Capabilities!$F$8,Summary_Capabilities!$H$8)</c15:sqref>
@@ -1024,7 +1043,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -1049,7 +1068,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -1072,7 +1091,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$9,Summary_Capabilities!$F$9,Summary_Capabilities!$H$9)</c15:sqref>
@@ -1085,7 +1104,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -1110,7 +1129,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -1133,7 +1152,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$10,Summary_Capabilities!$F$10,Summary_Capabilities!$H$10)</c15:sqref>
@@ -1146,7 +1165,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -1171,7 +1190,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -1194,7 +1213,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$11,Summary_Capabilities!$F$11,Summary_Capabilities!$H$11)</c15:sqref>
@@ -1207,7 +1226,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -1232,7 +1251,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -1255,7 +1274,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$12,Summary_Capabilities!$F$12,Summary_Capabilities!$H$12)</c15:sqref>
@@ -1268,7 +1287,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -1293,7 +1312,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -1316,7 +1335,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$13,Summary_Capabilities!$F$13,Summary_Capabilities!$H$13)</c15:sqref>
@@ -1329,7 +1348,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -1354,7 +1373,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -1377,7 +1396,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$14,Summary_Capabilities!$F$14,Summary_Capabilities!$H$14)</c15:sqref>
@@ -1390,7 +1409,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -1416,7 +1435,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -1439,7 +1458,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$15,Summary_Capabilities!$F$15,Summary_Capabilities!$H$15)</c15:sqref>
@@ -1452,7 +1471,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -1478,7 +1497,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -1501,7 +1520,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$16,Summary_Capabilities!$F$16,Summary_Capabilities!$H$16)</c15:sqref>
@@ -1514,7 +1533,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -1540,7 +1559,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -1563,7 +1582,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$17,Summary_Capabilities!$F$17,Summary_Capabilities!$H$17)</c15:sqref>
@@ -1576,7 +1595,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -1602,7 +1621,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -1625,7 +1644,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$18,Summary_Capabilities!$F$18,Summary_Capabilities!$H$18)</c15:sqref>
@@ -1638,7 +1657,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -1664,7 +1683,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -1687,7 +1706,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$19,Summary_Capabilities!$F$19,Summary_Capabilities!$H$19)</c15:sqref>
@@ -1700,7 +1719,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -1726,7 +1745,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -1749,7 +1768,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$20,Summary_Capabilities!$F$20,Summary_Capabilities!$H$20)</c15:sqref>
@@ -1762,7 +1781,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -1787,7 +1806,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -1810,7 +1829,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$21,Summary_Capabilities!$F$21,Summary_Capabilities!$H$21)</c15:sqref>
@@ -1823,7 +1842,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000012-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -1848,7 +1867,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -1871,7 +1890,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$22,Summary_Capabilities!$F$22,Summary_Capabilities!$H$22)</c15:sqref>
@@ -1884,7 +1903,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000013-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -1909,7 +1928,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -1932,7 +1951,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$23,Summary_Capabilities!$F$23,Summary_Capabilities!$H$23)</c15:sqref>
@@ -1945,7 +1964,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000014-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -1970,7 +1989,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -1993,7 +2012,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$24,Summary_Capabilities!$F$24,Summary_Capabilities!$H$24)</c15:sqref>
@@ -2006,7 +2025,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000015-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -2031,7 +2050,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -2054,7 +2073,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$25,Summary_Capabilities!$F$25,Summary_Capabilities!$H$25)</c15:sqref>
@@ -2067,7 +2086,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000016-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -2092,7 +2111,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
@@ -2115,10 +2134,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$26,Summary_Capabilities!$F$26,Summary_Capabilities!$H$26)</c15:sqref>
+                          <c15:sqref>(Summary_Capabilities!$D$28,Summary_Capabilities!$F$28,Summary_Capabilities!$H$28)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2128,7 +2147,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000017-FCDC-4786-834E-581A2E8F38B3}"/>
                   </c:ext>
@@ -6975,13 +6994,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6999,6 +7018,348 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="Oval 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505700" y="19078575"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Oval 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="19059525"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="Oval 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10258425" y="19126200"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Oval 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534275" y="19802475"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="Oval 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="19726275"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="Oval 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248900" y="19735800"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7267,11 +7628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7289,17 +7650,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7718,19 +8079,59 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="C27" s="2" t="s">
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="C29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D29" s="3">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3">
         <v>18.5</v>
       </c>
-      <c r="F27" s="3">
-        <v>16.5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>9</v>
+      <c r="H29" s="3">
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>
@@ -7782,19 +8183,25 @@
     <hyperlink ref="G16" r:id="rId42"/>
     <hyperlink ref="E25" r:id="rId43"/>
     <hyperlink ref="G25" r:id="rId44"/>
+    <hyperlink ref="E26" r:id="rId45"/>
+    <hyperlink ref="G26" r:id="rId46" location="scene-recognition"/>
+    <hyperlink ref="I26" r:id="rId47"/>
+    <hyperlink ref="E27" r:id="rId48"/>
+    <hyperlink ref="G27" r:id="rId49" location="content-moderation"/>
+    <hyperlink ref="I27" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId45"/>
-  <drawing r:id="rId46"/>
+  <pageSetup orientation="portrait" r:id="rId51"/>
+  <drawing r:id="rId52"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D23" sqref="B23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7808,28 +8215,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7855,7 +8262,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>5</v>
@@ -7872,7 +8279,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>9</v>
@@ -7889,7 +8296,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
@@ -7906,7 +8313,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>18</v>
@@ -7923,7 +8330,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>23</v>
@@ -7957,7 +8364,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>43</v>
@@ -7974,7 +8381,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>49</v>
@@ -7991,7 +8398,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>54</v>
@@ -8008,7 +8415,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>58</v>
@@ -8025,7 +8432,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>63</v>
@@ -8042,7 +8449,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>66</v>
@@ -8059,7 +8466,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>69</v>
@@ -8076,7 +8483,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>72</v>
@@ -8093,7 +8500,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>75</v>
@@ -8110,7 +8517,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>78</v>
@@ -8127,7 +8534,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>81</v>
@@ -8153,6 +8560,23 @@
         <v>85</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8179,18 +8603,19 @@
     <hyperlink ref="E20" r:id="rId16"/>
     <hyperlink ref="E21" r:id="rId17"/>
     <hyperlink ref="E22" r:id="rId18"/>
+    <hyperlink ref="E23" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8204,28 +8629,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8249,7 +8674,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>5</v>
@@ -8266,7 +8691,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>9</v>
@@ -8283,7 +8708,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
@@ -8300,7 +8725,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>18</v>
@@ -8317,7 +8742,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>23</v>
@@ -8402,7 +8827,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>43</v>
@@ -8419,7 +8844,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>49</v>
@@ -8436,7 +8861,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>54</v>
@@ -8453,7 +8878,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>58</v>
@@ -8514,6 +8939,40 @@
       </c>
       <c r="E20" s="1" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -8537,18 +8996,20 @@
     <hyperlink ref="E18" r:id="rId14" location="facial-recognition"/>
     <hyperlink ref="E19" r:id="rId15" location="facial-expression-recognition"/>
     <hyperlink ref="E20" r:id="rId16"/>
+    <hyperlink ref="E21" r:id="rId17" location="scene-recognition"/>
+    <hyperlink ref="E22" r:id="rId18" location="content-moderation"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8562,28 +9023,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8598,7 +9059,7 @@
         <v>109</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>110</v>
@@ -8606,10 +9067,10 @@
     </row>
     <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>9</v>
@@ -8623,10 +9084,10 @@
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>18</v>
@@ -8640,10 +9101,10 @@
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>23</v>
@@ -8657,7 +9118,7 @@
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>109</v>
@@ -8674,7 +9135,7 @@
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>109</v>
@@ -8691,10 +9152,10 @@
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>49</v>
@@ -8708,10 +9169,10 @@
     </row>
     <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>58</v>
@@ -8725,7 +9186,7 @@
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>109</v>
@@ -8742,7 +9203,7 @@
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>109</v>
@@ -8755,6 +9216,23 @@
       </c>
       <c r="E13" s="1" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -8772,8 +9250,9 @@
     <hyperlink ref="E11" r:id="rId8"/>
     <hyperlink ref="E12" r:id="rId9"/>
     <hyperlink ref="E13" r:id="rId10"/>
+    <hyperlink ref="E14" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/OpenAI/Document/OpenAI.xlsx
+++ b/OpenAI/Document/OpenAI.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_Capabilities" sheetId="1" r:id="rId1"/>
     <sheet name="OpenAI" sheetId="4" r:id="rId2"/>
     <sheet name="DeepAI" sheetId="2" r:id="rId3"/>
     <sheet name="AmazonAI" sheetId="5" r:id="rId4"/>
+    <sheet name="GoogleAI" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="139">
   <si>
     <t>Sl No</t>
   </si>
@@ -47,9 +48,6 @@
     <t>Creating Images from Text</t>
   </si>
   <si>
-    <t>Text-to-image generation has traditionally focused on finding better modeling assumptions for training on a fixed dataset. These assumptions might involve complex architectures, auxiliary losses, or side information such as object part labels or segmentation masks supplied during training</t>
-  </si>
-  <si>
     <t>https://openai.com/blog/dall-e/</t>
   </si>
   <si>
@@ -59,11 +57,6 @@
     <t>Text Generator</t>
   </si>
   <si>
-    <t>AI text generators generate texts from structured big data using – as the name suggests already – artificial intelligence.
-They are able to recognize both patterns and trends based on what has been written so far by humans and suggest new ideas to create more and sometimes even better texts.
-AI text generators are also able to help you giving your writing the final touch of improving spelling, grammar, and even style using artificial intelligence.</t>
-  </si>
-  <si>
     <t>https://openai.com/blog/better-language-models/</t>
   </si>
   <si>
@@ -76,9 +69,6 @@
     <t>Text Tagging</t>
   </si>
   <si>
-    <t>Extracts the most relevant and unique words from a sample of text. These words can then be used to classify documents.</t>
-  </si>
-  <si>
     <t>https://beta.openai.com/docs/guides/classifications</t>
   </si>
   <si>
@@ -88,9 +78,6 @@
     <t>Sentiment Analysis</t>
   </si>
   <si>
-    <t>Classifies text as positive or negative in mood.</t>
-  </si>
-  <si>
     <t>https://openai.com/blog/unsupervised-sentiment-neuron/</t>
   </si>
   <si>
@@ -101,9 +88,6 @@
   </si>
   <si>
     <t>Text Summarization</t>
-  </si>
-  <si>
-    <t>Reduces the size of the document by only keeping the most relevant sentenses from it</t>
   </si>
   <si>
     <t>https://deepai.org/machine-learning-model/summarization</t>
@@ -131,9 +115,6 @@
     <t>Image Inpainting</t>
   </si>
   <si>
-    <t>Fill the hole present in the image by creating pixels that make the filled in image look natural</t>
-  </si>
-  <si>
     <t>https://openai.com/blog/image-gpt/</t>
   </si>
   <si>
@@ -152,27 +133,18 @@
     <t>https://aws.amazon.com/rekognition/video-features/?nc=sn&amp;loc=3&amp;dn=1</t>
   </si>
   <si>
-    <t>SwapText: Image Based Texts Transfer in Scenes</t>
-  </si>
-  <si>
     <t>Swapping text in scene images while preserving original fonts, colors, sizes and background textures is a challenging task due to the complex interplay between different factors.</t>
   </si>
   <si>
     <t>https://deepai.org/publication/swaptext-image-based-texts-transfer-in-scenes</t>
   </si>
   <si>
-    <t>Grammer Correction</t>
-  </si>
-  <si>
     <t>https://beta.openai.com/examples/default-grammar</t>
   </si>
   <si>
     <t>DeepAI</t>
   </si>
   <si>
-    <t>Grammar checking is the task of detection and correction of grammatical errors in the text.</t>
-  </si>
-  <si>
     <t>https://deepai.org/publication/a-systematic-review-of-automated-grammar-checking-in-english-language</t>
   </si>
   <si>
@@ -182,9 +154,6 @@
     <t>English to other languages</t>
   </si>
   <si>
-    <t>Translate English text into French, Spanish and Japanese</t>
-  </si>
-  <si>
     <t>https://beta.openai.com/examples/default-translate</t>
   </si>
   <si>
@@ -197,18 +166,12 @@
     <t>SQL Translate</t>
   </si>
   <si>
-    <t>Translate natural language to SQL queries</t>
-  </si>
-  <si>
     <t>https://beta.openai.com/examples/default-sql-translate</t>
   </si>
   <si>
     <t>https://deepai.org/publication/towards-robustness-of-text-to-sql-models-against-synonym-substitution</t>
   </si>
   <si>
-    <t>Parse unstructured data</t>
-  </si>
-  <si>
     <t>Create tables from long form text by specifying a structure and supplying some examples.</t>
   </si>
   <si>
@@ -224,72 +187,36 @@
     <t>Python to natural language</t>
   </si>
   <si>
-    <t>Explain a piece of Python code in human understandable language</t>
-  </si>
-  <si>
     <t>https://beta.openai.com/examples/default-python-to-natural-language</t>
   </si>
   <si>
-    <t>Translate programming languages</t>
-  </si>
-  <si>
-    <t>To translate from one programming language to another we can use the comments to specify the source and target languages.</t>
-  </si>
-  <si>
     <t>https://beta.openai.com/examples/default-translate-code</t>
   </si>
   <si>
     <t>Product name generator</t>
   </si>
   <si>
-    <t>Create product names from examples words. Influenced by a community prompt.</t>
-  </si>
-  <si>
     <t>https://beta.openai.com/examples/default-product-name-gen</t>
   </si>
   <si>
     <t>Python bug fixer</t>
   </si>
   <si>
-    <t>Can able to fix the bugs in given python code</t>
-  </si>
-  <si>
     <t>https://beta.openai.com/examples/default-fix-python-bugs</t>
   </si>
   <si>
-    <t>JavaScript helper chatbot</t>
-  </si>
-  <si>
-    <t>Can able to answer questions about using JavaScript</t>
-  </si>
-  <si>
     <t>https://beta.openai.com/examples/default-js-helper</t>
   </si>
   <si>
-    <t>Extract contact information</t>
-  </si>
-  <si>
-    <t>Can able to analyze the block of text and extract contact information from the text</t>
-  </si>
-  <si>
     <t>https://beta.openai.com/examples/default-extract-contact-info</t>
   </si>
   <si>
-    <t>JavaScript one line function</t>
-  </si>
-  <si>
-    <t>Analyze the JavaScript function and find the function can able to write in single line and convert that function into single line</t>
-  </si>
-  <si>
     <t>https://beta.openai.com/examples/default-js-one-line</t>
   </si>
   <si>
     <t>Facial Recognition</t>
   </si>
   <si>
-    <t>This face detection API detects and recognizes faces in any image or video frame.</t>
-  </si>
-  <si>
     <t>https://deepai.org/api-docs/#facial-recognition</t>
   </si>
   <si>
@@ -299,9 +226,6 @@
     <t>Facial Expression Recognition</t>
   </si>
   <si>
-    <t>The ability to recognize facial expressions of the given image</t>
-  </si>
-  <si>
     <t>https://deepai.org/api-docs/#facial-expression-recognition</t>
   </si>
   <si>
@@ -312,9 +236,6 @@
   </si>
   <si>
     <t>Image Colorization</t>
-  </si>
-  <si>
-    <t>Colorize black and white images or videos using the image colorization. Add color to old family photos and historic images, or bring an old film back to life with colorization.</t>
   </si>
   <si>
     <t>https://deepai.org/machine-learning-model/colorizer</t>
@@ -384,26 +305,163 @@
     <t>Scene Recognition</t>
   </si>
   <si>
-    <t>Detect and label the apparent location of the scene within a given image or video</t>
-  </si>
-  <si>
     <t>https://deepai.org/api-docs/#scene-recognition</t>
   </si>
   <si>
     <t>Content moderation</t>
   </si>
   <si>
-    <t>The content moderation is analyzes images and videos to detect the presence of adult content, hate symbols, guns, and offensive words found amongst text within images</t>
-  </si>
-  <si>
     <t>https://deepai.org/api-docs/#content-moderation</t>
+  </si>
+  <si>
+    <t>Google AI</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/vision/product-search/docs/searching</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/document-ai/docs/overview</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/natural-language/docs/classifying-text/</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/ai-workshop/experiments/language-emotion</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/ai-workshop/experiments/abstractive-document-summarization</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/vision/docs/ocr</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/vision/docs/detecting-crop-hints</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/video-intelligence/docs/feature-text-detection</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/blog/products/g-suite/everyday-ai-beyond-spell-check-how-google-docs-is-smart-enough-to-correct-grammar</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/translate</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/bigquery/docs/batch-sql-translator</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/blog/products/gcp/structuring-unstructured-text-with-the-google-cloud-natural-language-api</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/vision/docs/detecting-faces</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/vision/docs/face-tutorial</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/vision/docs/detecting-properties/</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/blog/products/ai-machine-learning/using-ai-to-scale-audio-content-categorization/</t>
+  </si>
+  <si>
+    <t>GoogleAI Capability Analysis</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/vision#section-12</t>
+  </si>
+  <si>
+    <t>The model is capable of generating various types of images from textual descriptions.</t>
+  </si>
+  <si>
+    <t>AI text generators generate texts from structured big data using – as the name suggests already – artificial intelligence.
+They are able to recognise both patterns and trends based on what has been written so far by humans and suggest new ideas to create more and sometimes even better texts.
+AI text generators are also able to help you give your writing the final touch by improving spelling, grammar, and even style.</t>
+  </si>
+  <si>
+    <t>It extracts the most relevant and unique words from a sample of text. These words can then be used to classify documents.</t>
+  </si>
+  <si>
+    <t>classifies text as positive or negative in mood.</t>
+  </si>
+  <si>
+    <t>Reduces the size of the document by only keeping the most relevant  sentences from it.</t>
+  </si>
+  <si>
+    <t>Fill the hole present in the image by creating pixels that make the filled in image look natural.</t>
+  </si>
+  <si>
+    <t>SwapText: Image Based Texts Transferred in Scenes</t>
+  </si>
+  <si>
+    <t>Grammar checking is the task of detecting and correcting grammatical errors in the text.</t>
+  </si>
+  <si>
+    <t>Grammar Correction</t>
+  </si>
+  <si>
+    <t>Translate English text into French, Spanish, and Japanese.</t>
+  </si>
+  <si>
+    <t>Translate natural language to SQL queries.</t>
+  </si>
+  <si>
+    <t>Parsing unstructured data.</t>
+  </si>
+  <si>
+    <t>Explain a piece of Python code in a human-understandable language.</t>
+  </si>
+  <si>
+    <t>can be able to translate programming languages.</t>
+  </si>
+  <si>
+    <t>To translate from one programming language to another, we can use the comments to specify the source and target languages.</t>
+  </si>
+  <si>
+    <t>Create product names from examples of words. Influenced by a community prompt</t>
+  </si>
+  <si>
+    <t>can be able to fix the bugs in the given Python code.</t>
+  </si>
+  <si>
+    <t>JavaScript chatbot helper</t>
+  </si>
+  <si>
+    <t>can be able to answer questions about using JavaScript.</t>
+  </si>
+  <si>
+    <t>Extract contact information.</t>
+  </si>
+  <si>
+    <t>can be able to analyse the block of text and extract contact information from the text.</t>
+  </si>
+  <si>
+    <t>One-line JavaScript function</t>
+  </si>
+  <si>
+    <t>Analyze the JavaScript function and find the function that can be written in a single line and convert that function into a single line.</t>
+  </si>
+  <si>
+    <t>This face detection API detects and recognises faces in any image or video frame.</t>
+  </si>
+  <si>
+    <t>The ability to recognise the facial expressions of a given image</t>
+  </si>
+  <si>
+    <t>Colorize black and white images or videos using image colorization. Add colour to old family photos and historic images, or bring an old film back to life with colorization.</t>
+  </si>
+  <si>
+    <t>Detect and label the apparent location of the scene within a given image or video.</t>
+  </si>
+  <si>
+    <t>The content moderation analyses images and videos to detect the presence of adult content, hate symbols, guns, and offensive words found amongst the text within images.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,15 +504,23 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.749992370372631"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="2" tint="-0.749992370372631"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -480,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -503,17 +569,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -568,11 +637,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Competetor</a:t>
+              <a:t>Capability</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> Capabilities</a:t>
+              <a:t> Comparision</a:t>
             </a:r>
             <a:endParaRPr lang="en-IN"/>
           </a:p>
@@ -610,30 +679,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.2692038495188102E-2"/>
-          <c:y val="0.16245370370370371"/>
-          <c:w val="0.899407261592301"/>
-          <c:h val="0.61498432487605714"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="24"/>
-          <c:order val="24"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -643,9 +699,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c:f>
+              <c:f>(Summary_Capabilities!$D$2,Summary_Capabilities!$F$2,Summary_Capabilities!$H$2,Summary_Capabilities!$J$2)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>OpenAI</c:v>
                 </c:pt>
@@ -655,15 +711,18 @@
                 <c:pt idx="2">
                   <c:v>Amazon</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Google AI</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Summary_Capabilities!$D$29,Summary_Capabilities!$F$29,Summary_Capabilities!$H$29)</c:f>
+              <c:f>(Summary_Capabilities!$D$29,Summary_Capabilities!$F$29,Summary_Capabilities!$H$29,Summary_Capabilities!$J$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -673,12 +732,15 @@
                 <c:pt idx="2">
                   <c:v>10.5</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-FCDC-4786-834E-581A2E8F38B3}"/>
+              <c16:uniqueId val="{00000000-5C56-4C6B-987F-8BA89E62BA53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -692,1473 +754,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1251401951"/>
-        <c:axId val="1251410271"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$3,Summary_Capabilities!$F$3,Summary_Capabilities!$H$3)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$4,Summary_Capabilities!$F$4,Summary_Capabilities!$H$4)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$5,Summary_Capabilities!$F$5,Summary_Capabilities!$H$5)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$6,Summary_Capabilities!$F$6,Summary_Capabilities!$H$6)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$7,Summary_Capabilities!$F$7,Summary_Capabilities!$H$7)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$8,Summary_Capabilities!$F$8,Summary_Capabilities!$H$8)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$9,Summary_Capabilities!$F$9,Summary_Capabilities!$H$9)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$10,Summary_Capabilities!$F$10,Summary_Capabilities!$H$10)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="8"/>
-                <c:order val="8"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$11,Summary_Capabilities!$F$11,Summary_Capabilities!$H$11)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000008-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="9"/>
-                <c:order val="9"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$12,Summary_Capabilities!$F$12,Summary_Capabilities!$H$12)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000009-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="10"/>
-                <c:order val="10"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$13,Summary_Capabilities!$F$13,Summary_Capabilities!$H$13)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000A-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="11"/>
-                <c:order val="11"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$14,Summary_Capabilities!$F$14,Summary_Capabilities!$H$14)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000B-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="12"/>
-                <c:order val="12"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$15,Summary_Capabilities!$F$15,Summary_Capabilities!$H$15)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000C-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="13"/>
-                <c:order val="13"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$16,Summary_Capabilities!$F$16,Summary_Capabilities!$H$16)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000D-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="14"/>
-                <c:order val="14"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$17,Summary_Capabilities!$F$17,Summary_Capabilities!$H$17)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000E-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="15"/>
-                <c:order val="15"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$18,Summary_Capabilities!$F$18,Summary_Capabilities!$H$18)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000F-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="16"/>
-                <c:order val="16"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$19,Summary_Capabilities!$F$19,Summary_Capabilities!$H$19)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000010-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="17"/>
-                <c:order val="17"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$20,Summary_Capabilities!$F$20,Summary_Capabilities!$H$20)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000011-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="18"/>
-                <c:order val="18"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$21,Summary_Capabilities!$F$21,Summary_Capabilities!$H$21)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000012-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="19"/>
-                <c:order val="19"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="80000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$22,Summary_Capabilities!$F$22,Summary_Capabilities!$H$22)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000013-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="20"/>
-                <c:order val="20"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="80000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$23,Summary_Capabilities!$F$23,Summary_Capabilities!$H$23)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000014-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="21"/>
-                <c:order val="21"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="80000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$24,Summary_Capabilities!$F$24,Summary_Capabilities!$H$24)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000015-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="22"/>
-                <c:order val="22"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="80000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$25,Summary_Capabilities!$F$25,Summary_Capabilities!$H$25)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000016-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="23"/>
-                <c:order val="23"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="80000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>OpenAI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DeepAI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Amazon</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Summary_Capabilities!$D$28,Summary_Capabilities!$F$28,Summary_Capabilities!$H$28)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000017-FCDC-4786-834E-581A2E8F38B3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="247767183"/>
+        <c:axId val="247771759"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1251401951"/>
+        <c:axId val="247767183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,7 +801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1251410271"/>
+        <c:crossAx val="247771759"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2209,7 +809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1251410271"/>
+        <c:axId val="247771759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2260,7 +860,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1251401951"/>
+        <c:crossAx val="247767183"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2272,38 +872,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4656,15 +3224,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>390525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
+      <xdr:rowOff>533400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4673,7 +3241,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7477125" y="8982075"/>
+          <a:off x="7248525" y="12134850"/>
           <a:ext cx="152400" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6992,20 +5560,1787 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="Oval 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505700" y="19078575"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Oval 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="19059525"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="Oval 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10258425" y="19126200"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Oval 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534275" y="19802475"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="Oval 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="19726275"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="Oval 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248900" y="19735800"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Oval 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11506200" y="1219200"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>933450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Oval 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11525250" y="2781300"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Oval 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11506200" y="4124325"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="Oval 93"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11487150" y="5486400"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="Oval 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11487150" y="6743700"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="Oval 101"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11515725" y="8077200"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="Oval 102"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11487150" y="8877300"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>581025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="Oval 103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11496675" y="9896475"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="Oval 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11506200" y="11172825"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>581025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="Oval 105"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11506200" y="12182475"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>638175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="Oval 106"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11449050" y="14144625"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="Oval 107"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11458575" y="15354300"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>676275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Oval 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11458575" y="16659225"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="Oval 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11477625" y="18326100"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="Oval 110"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11496675" y="19345275"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="Oval 111"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11506200" y="19897725"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="Oval 112"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11496675" y="20507325"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="Oval 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11506200" y="21059775"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="Oval 114"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11487150" y="21688425"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="Oval 115"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11496675" y="22259925"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>542925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="Oval 116"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11468100" y="23079075"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="Oval 117"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11496675" y="23841075"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="Oval 118"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11468100" y="24650700"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="Oval 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11553825" y="25593675"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="Oval 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11496675" y="26508075"/>
+          <a:ext cx="152400" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="11" name="Chart 10"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7018,348 +7353,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="Oval 94"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7505700" y="19078575"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="Oval 96"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5048250" y="19059525"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="Oval 97"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10258425" y="19126200"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="Oval 98"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7534275" y="19802475"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="Oval 99"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5048250" y="19726275"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="Oval 100"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10248900" y="19735800"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7628,11 +7621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7641,28 +7634,30 @@
     <col min="2" max="2" width="20.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="45.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="9" max="9" width="38.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="38.28515625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7679,19 +7674,25 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -7699,430 +7700,478 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="153" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="K6" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D29" s="3">
         <v>20</v>
@@ -8132,6 +8181,9 @@
       </c>
       <c r="H29" s="3">
         <v>10.5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>
@@ -8189,10 +8241,26 @@
     <hyperlink ref="E27" r:id="rId48"/>
     <hyperlink ref="G27" r:id="rId49" location="content-moderation"/>
     <hyperlink ref="I27" r:id="rId50"/>
+    <hyperlink ref="K3" r:id="rId51"/>
+    <hyperlink ref="K4" r:id="rId52"/>
+    <hyperlink ref="K5" r:id="rId53"/>
+    <hyperlink ref="K6" r:id="rId54"/>
+    <hyperlink ref="K7" r:id="rId55"/>
+    <hyperlink ref="K8" r:id="rId56"/>
+    <hyperlink ref="K9" r:id="rId57"/>
+    <hyperlink ref="K10" r:id="rId58"/>
+    <hyperlink ref="K12" r:id="rId59"/>
+    <hyperlink ref="K13" r:id="rId60"/>
+    <hyperlink ref="K14" r:id="rId61"/>
+    <hyperlink ref="K15" r:id="rId62"/>
+    <hyperlink ref="K23" r:id="rId63"/>
+    <hyperlink ref="K24" r:id="rId64"/>
+    <hyperlink ref="K26" r:id="rId65"/>
+    <hyperlink ref="K27" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId51"/>
-  <drawing r:id="rId52"/>
+  <pageSetup orientation="portrait" r:id="rId67"/>
+  <drawing r:id="rId68"/>
 </worksheet>
 </file>
 
@@ -8200,8 +8268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D23" sqref="B23:D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8215,369 +8283,369 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="B4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="B13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="B17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="B18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="B21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="B22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>11</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>14</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>15</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>17</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>18</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>19</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>34</v>
+      <c r="C23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -8614,8 +8682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D22" sqref="B22:D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8629,350 +8697,350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="B4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="B13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="B17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="B18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="B21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>11</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>14</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>15</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="B22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>17</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>18</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>19</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>119</v>
+      <c r="D22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -9008,8 +9076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9023,216 +9091,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="B4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="B13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
+      <c r="B14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -9255,4 +9323,306 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26" style="6" customWidth="1"/>
+    <col min="4" max="4" width="69" style="6" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E6" r:id="rId2"/>
+    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="E9" r:id="rId5"/>
+    <hyperlink ref="E10" r:id="rId6"/>
+    <hyperlink ref="E11" r:id="rId7"/>
+    <hyperlink ref="E12" r:id="rId8"/>
+    <hyperlink ref="E13" r:id="rId9"/>
+    <hyperlink ref="E14" r:id="rId10"/>
+    <hyperlink ref="E15" r:id="rId11"/>
+    <hyperlink ref="E16" r:id="rId12"/>
+    <hyperlink ref="E17" r:id="rId13"/>
+    <hyperlink ref="E4" r:id="rId14" location="section-12"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+</worksheet>
 </file>
--- a/OpenAI/Document/OpenAI.xlsx
+++ b/OpenAI/Document/OpenAI.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_Capabilities" sheetId="1" r:id="rId1"/>
     <sheet name="OpenAI" sheetId="4" r:id="rId2"/>
     <sheet name="DeepAI" sheetId="2" r:id="rId3"/>
     <sheet name="AmazonAI" sheetId="5" r:id="rId4"/>
-    <sheet name="GoogleAI" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="120">
   <si>
     <t>Sl No</t>
   </si>
@@ -48,6 +47,9 @@
     <t>Creating Images from Text</t>
   </si>
   <si>
+    <t>Text-to-image generation has traditionally focused on finding better modeling assumptions for training on a fixed dataset. These assumptions might involve complex architectures, auxiliary losses, or side information such as object part labels or segmentation masks supplied during training</t>
+  </si>
+  <si>
     <t>https://openai.com/blog/dall-e/</t>
   </si>
   <si>
@@ -57,6 +59,11 @@
     <t>Text Generator</t>
   </si>
   <si>
+    <t>AI text generators generate texts from structured big data using – as the name suggests already – artificial intelligence.
+They are able to recognize both patterns and trends based on what has been written so far by humans and suggest new ideas to create more and sometimes even better texts.
+AI text generators are also able to help you giving your writing the final touch of improving spelling, grammar, and even style using artificial intelligence.</t>
+  </si>
+  <si>
     <t>https://openai.com/blog/better-language-models/</t>
   </si>
   <si>
@@ -69,6 +76,9 @@
     <t>Text Tagging</t>
   </si>
   <si>
+    <t>Extracts the most relevant and unique words from a sample of text. These words can then be used to classify documents.</t>
+  </si>
+  <si>
     <t>https://beta.openai.com/docs/guides/classifications</t>
   </si>
   <si>
@@ -78,6 +88,9 @@
     <t>Sentiment Analysis</t>
   </si>
   <si>
+    <t>Classifies text as positive or negative in mood.</t>
+  </si>
+  <si>
     <t>https://openai.com/blog/unsupervised-sentiment-neuron/</t>
   </si>
   <si>
@@ -88,6 +101,9 @@
   </si>
   <si>
     <t>Text Summarization</t>
+  </si>
+  <si>
+    <t>Reduces the size of the document by only keeping the most relevant sentenses from it</t>
   </si>
   <si>
     <t>https://deepai.org/machine-learning-model/summarization</t>
@@ -115,6 +131,9 @@
     <t>Image Inpainting</t>
   </si>
   <si>
+    <t>Fill the hole present in the image by creating pixels that make the filled in image look natural</t>
+  </si>
+  <si>
     <t>https://openai.com/blog/image-gpt/</t>
   </si>
   <si>
@@ -133,18 +152,27 @@
     <t>https://aws.amazon.com/rekognition/video-features/?nc=sn&amp;loc=3&amp;dn=1</t>
   </si>
   <si>
+    <t>SwapText: Image Based Texts Transfer in Scenes</t>
+  </si>
+  <si>
     <t>Swapping text in scene images while preserving original fonts, colors, sizes and background textures is a challenging task due to the complex interplay between different factors.</t>
   </si>
   <si>
     <t>https://deepai.org/publication/swaptext-image-based-texts-transfer-in-scenes</t>
   </si>
   <si>
+    <t>Grammer Correction</t>
+  </si>
+  <si>
     <t>https://beta.openai.com/examples/default-grammar</t>
   </si>
   <si>
     <t>DeepAI</t>
   </si>
   <si>
+    <t>Grammar checking is the task of detection and correction of grammatical errors in the text.</t>
+  </si>
+  <si>
     <t>https://deepai.org/publication/a-systematic-review-of-automated-grammar-checking-in-english-language</t>
   </si>
   <si>
@@ -154,6 +182,9 @@
     <t>English to other languages</t>
   </si>
   <si>
+    <t>Translate English text into French, Spanish and Japanese</t>
+  </si>
+  <si>
     <t>https://beta.openai.com/examples/default-translate</t>
   </si>
   <si>
@@ -166,12 +197,18 @@
     <t>SQL Translate</t>
   </si>
   <si>
+    <t>Translate natural language to SQL queries</t>
+  </si>
+  <si>
     <t>https://beta.openai.com/examples/default-sql-translate</t>
   </si>
   <si>
     <t>https://deepai.org/publication/towards-robustness-of-text-to-sql-models-against-synonym-substitution</t>
   </si>
   <si>
+    <t>Parse unstructured data</t>
+  </si>
+  <si>
     <t>Create tables from long form text by specifying a structure and supplying some examples.</t>
   </si>
   <si>
@@ -187,36 +224,72 @@
     <t>Python to natural language</t>
   </si>
   <si>
+    <t>Explain a piece of Python code in human understandable language</t>
+  </si>
+  <si>
     <t>https://beta.openai.com/examples/default-python-to-natural-language</t>
   </si>
   <si>
+    <t>Translate programming languages</t>
+  </si>
+  <si>
+    <t>To translate from one programming language to another we can use the comments to specify the source and target languages.</t>
+  </si>
+  <si>
     <t>https://beta.openai.com/examples/default-translate-code</t>
   </si>
   <si>
     <t>Product name generator</t>
   </si>
   <si>
+    <t>Create product names from examples words. Influenced by a community prompt.</t>
+  </si>
+  <si>
     <t>https://beta.openai.com/examples/default-product-name-gen</t>
   </si>
   <si>
     <t>Python bug fixer</t>
   </si>
   <si>
+    <t>Can able to fix the bugs in given python code</t>
+  </si>
+  <si>
     <t>https://beta.openai.com/examples/default-fix-python-bugs</t>
   </si>
   <si>
+    <t>JavaScript helper chatbot</t>
+  </si>
+  <si>
+    <t>Can able to answer questions about using JavaScript</t>
+  </si>
+  <si>
     <t>https://beta.openai.com/examples/default-js-helper</t>
   </si>
   <si>
+    <t>Extract contact information</t>
+  </si>
+  <si>
+    <t>Can able to analyze the block of text and extract contact information from the text</t>
+  </si>
+  <si>
     <t>https://beta.openai.com/examples/default-extract-contact-info</t>
   </si>
   <si>
+    <t>JavaScript one line function</t>
+  </si>
+  <si>
+    <t>Analyze the JavaScript function and find the function can able to write in single line and convert that function into single line</t>
+  </si>
+  <si>
     <t>https://beta.openai.com/examples/default-js-one-line</t>
   </si>
   <si>
     <t>Facial Recognition</t>
   </si>
   <si>
+    <t>This face detection API detects and recognizes faces in any image or video frame.</t>
+  </si>
+  <si>
     <t>https://deepai.org/api-docs/#facial-recognition</t>
   </si>
   <si>
@@ -226,6 +299,9 @@
     <t>Facial Expression Recognition</t>
   </si>
   <si>
+    <t>The ability to recognize facial expressions of the given image</t>
+  </si>
+  <si>
     <t>https://deepai.org/api-docs/#facial-expression-recognition</t>
   </si>
   <si>
@@ -236,6 +312,9 @@
   </si>
   <si>
     <t>Image Colorization</t>
+  </si>
+  <si>
+    <t>Colorize black and white images or videos using the image colorization. Add color to old family photos and historic images, or bring an old film back to life with colorization.</t>
   </si>
   <si>
     <t>https://deepai.org/machine-learning-model/colorizer</t>
@@ -305,163 +384,26 @@
     <t>Scene Recognition</t>
   </si>
   <si>
+    <t>Detect and label the apparent location of the scene within a given image or video</t>
+  </si>
+  <si>
     <t>https://deepai.org/api-docs/#scene-recognition</t>
   </si>
   <si>
     <t>Content moderation</t>
   </si>
   <si>
+    <t>The content moderation is analyzes images and videos to detect the presence of adult content, hate symbols, guns, and offensive words found amongst text within images</t>
+  </si>
+  <si>
     <t>https://deepai.org/api-docs/#content-moderation</t>
-  </si>
-  <si>
-    <t>Google AI</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/vision/product-search/docs/searching</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/document-ai/docs/overview</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/natural-language/docs/classifying-text/</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/ai-workshop/experiments/language-emotion</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/ai-workshop/experiments/abstractive-document-summarization</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/vision/docs/ocr</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/vision/docs/detecting-crop-hints</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/video-intelligence/docs/feature-text-detection</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/blog/products/g-suite/everyday-ai-beyond-spell-check-how-google-docs-is-smart-enough-to-correct-grammar</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/translate</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/bigquery/docs/batch-sql-translator</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/blog/products/gcp/structuring-unstructured-text-with-the-google-cloud-natural-language-api</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/vision/docs/detecting-faces</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/vision/docs/face-tutorial</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/vision/docs/detecting-properties/</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/blog/products/ai-machine-learning/using-ai-to-scale-audio-content-categorization/</t>
-  </si>
-  <si>
-    <t>GoogleAI Capability Analysis</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/vision#section-12</t>
-  </si>
-  <si>
-    <t>The model is capable of generating various types of images from textual descriptions.</t>
-  </si>
-  <si>
-    <t>AI text generators generate texts from structured big data using – as the name suggests already – artificial intelligence.
-They are able to recognise both patterns and trends based on what has been written so far by humans and suggest new ideas to create more and sometimes even better texts.
-AI text generators are also able to help you give your writing the final touch by improving spelling, grammar, and even style.</t>
-  </si>
-  <si>
-    <t>It extracts the most relevant and unique words from a sample of text. These words can then be used to classify documents.</t>
-  </si>
-  <si>
-    <t>classifies text as positive or negative in mood.</t>
-  </si>
-  <si>
-    <t>Reduces the size of the document by only keeping the most relevant  sentences from it.</t>
-  </si>
-  <si>
-    <t>Fill the hole present in the image by creating pixels that make the filled in image look natural.</t>
-  </si>
-  <si>
-    <t>SwapText: Image Based Texts Transferred in Scenes</t>
-  </si>
-  <si>
-    <t>Grammar checking is the task of detecting and correcting grammatical errors in the text.</t>
-  </si>
-  <si>
-    <t>Grammar Correction</t>
-  </si>
-  <si>
-    <t>Translate English text into French, Spanish, and Japanese.</t>
-  </si>
-  <si>
-    <t>Translate natural language to SQL queries.</t>
-  </si>
-  <si>
-    <t>Parsing unstructured data.</t>
-  </si>
-  <si>
-    <t>Explain a piece of Python code in a human-understandable language.</t>
-  </si>
-  <si>
-    <t>can be able to translate programming languages.</t>
-  </si>
-  <si>
-    <t>To translate from one programming language to another, we can use the comments to specify the source and target languages.</t>
-  </si>
-  <si>
-    <t>Create product names from examples of words. Influenced by a community prompt</t>
-  </si>
-  <si>
-    <t>can be able to fix the bugs in the given Python code.</t>
-  </si>
-  <si>
-    <t>JavaScript chatbot helper</t>
-  </si>
-  <si>
-    <t>can be able to answer questions about using JavaScript.</t>
-  </si>
-  <si>
-    <t>Extract contact information.</t>
-  </si>
-  <si>
-    <t>can be able to analyse the block of text and extract contact information from the text.</t>
-  </si>
-  <si>
-    <t>One-line JavaScript function</t>
-  </si>
-  <si>
-    <t>Analyze the JavaScript function and find the function that can be written in a single line and convert that function into a single line.</t>
-  </si>
-  <si>
-    <t>This face detection API detects and recognises faces in any image or video frame.</t>
-  </si>
-  <si>
-    <t>The ability to recognise the facial expressions of a given image</t>
-  </si>
-  <si>
-    <t>Colorize black and white images or videos using image colorization. Add colour to old family photos and historic images, or bring an old film back to life with colorization.</t>
-  </si>
-  <si>
-    <t>Detect and label the apparent location of the scene within a given image or video.</t>
-  </si>
-  <si>
-    <t>The content moderation analyses images and videos to detect the presence of adult content, hate symbols, guns, and offensive words found amongst the text within images.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,23 +446,15 @@
       <family val="3"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="2" tint="-0.749992370372631"/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.749992370372631"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -546,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -569,20 +503,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -637,11 +568,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Capability</a:t>
+              <a:t>Competetor</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> Comparision</a:t>
+              <a:t> Capabilities</a:t>
             </a:r>
             <a:endParaRPr lang="en-IN"/>
           </a:p>
@@ -679,17 +610,30 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2692038495188102E-2"/>
+          <c:y val="0.16245370370370371"/>
+          <c:w val="0.899407261592301"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="24"/>
+          <c:order val="24"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -699,9 +643,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Summary_Capabilities!$D$2,Summary_Capabilities!$F$2,Summary_Capabilities!$H$2,Summary_Capabilities!$J$2)</c:f>
+              <c:f>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>OpenAI</c:v>
                 </c:pt>
@@ -711,18 +655,15 @@
                 <c:pt idx="2">
                   <c:v>Amazon</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Google AI</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Summary_Capabilities!$D$29,Summary_Capabilities!$F$29,Summary_Capabilities!$H$29,Summary_Capabilities!$J$29)</c:f>
+              <c:f>(Summary_Capabilities!$D$29,Summary_Capabilities!$F$29,Summary_Capabilities!$H$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -732,15 +673,12 @@
                 <c:pt idx="2">
                   <c:v>10.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C56-4C6B-987F-8BA89E62BA53}"/>
+              <c16:uniqueId val="{00000018-FCDC-4786-834E-581A2E8F38B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -754,11 +692,1473 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="247767183"/>
-        <c:axId val="247771759"/>
+        <c:axId val="1251401951"/>
+        <c:axId val="1251410271"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$3,Summary_Capabilities!$F$3,Summary_Capabilities!$H$3)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$4,Summary_Capabilities!$F$4,Summary_Capabilities!$H$4)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$5,Summary_Capabilities!$F$5,Summary_Capabilities!$H$5)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$6,Summary_Capabilities!$F$6,Summary_Capabilities!$H$6)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$7,Summary_Capabilities!$F$7,Summary_Capabilities!$H$7)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$8,Summary_Capabilities!$F$8,Summary_Capabilities!$H$8)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$9,Summary_Capabilities!$F$9,Summary_Capabilities!$H$9)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$10,Summary_Capabilities!$F$10,Summary_Capabilities!$H$10)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$11,Summary_Capabilities!$F$11,Summary_Capabilities!$H$11)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$12,Summary_Capabilities!$F$12,Summary_Capabilities!$H$12)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$13,Summary_Capabilities!$F$13,Summary_Capabilities!$H$13)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$14,Summary_Capabilities!$F$14,Summary_Capabilities!$H$14)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="12"/>
+                <c:order val="12"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$15,Summary_Capabilities!$F$15,Summary_Capabilities!$H$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="13"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$16,Summary_Capabilities!$F$16,Summary_Capabilities!$H$16)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="14"/>
+                <c:order val="14"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$17,Summary_Capabilities!$F$17,Summary_Capabilities!$H$17)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000E-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="15"/>
+                <c:order val="15"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$18,Summary_Capabilities!$F$18,Summary_Capabilities!$H$18)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000F-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="16"/>
+                <c:order val="16"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$19,Summary_Capabilities!$F$19,Summary_Capabilities!$H$19)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000010-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="17"/>
+                <c:order val="17"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$20,Summary_Capabilities!$F$20,Summary_Capabilities!$H$20)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000011-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="18"/>
+                <c:order val="18"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$21,Summary_Capabilities!$F$21,Summary_Capabilities!$H$21)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000012-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="19"/>
+                <c:order val="19"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$22,Summary_Capabilities!$F$22,Summary_Capabilities!$H$22)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000013-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="20"/>
+                <c:order val="20"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$23,Summary_Capabilities!$F$23,Summary_Capabilities!$H$23)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000014-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="21"/>
+                <c:order val="21"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$24,Summary_Capabilities!$F$24,Summary_Capabilities!$H$24)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000015-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="22"/>
+                <c:order val="22"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$25,Summary_Capabilities!$F$25,Summary_Capabilities!$H$25)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000016-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="23"/>
+                <c:order val="23"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$1:$D$2,Summary_Capabilities!$F$1:$F$2,Summary_Capabilities!$H$1:$H$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>OpenAI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DeepAI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Amazon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Summary_Capabilities!$D$28,Summary_Capabilities!$F$28,Summary_Capabilities!$H$28)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000017-FCDC-4786-834E-581A2E8F38B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="247767183"/>
+        <c:axId val="1251401951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +2201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247771759"/>
+        <c:crossAx val="1251410271"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -809,7 +2209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247771759"/>
+        <c:axId val="1251410271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +2260,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247767183"/>
+        <c:crossAx val="1251401951"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -872,6 +2272,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3224,15 +4656,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>533400</xdr:rowOff>
+      <xdr:rowOff>257175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3241,7 +4673,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7248525" y="12134850"/>
+          <a:off x="7477125" y="8982075"/>
           <a:ext cx="152400" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5560,6 +6992,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -5898,1461 +7360,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>666750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="Oval 90"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11506200" y="1219200"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>790575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>933450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="Oval 91"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11525250" y="2781300"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="Oval 92"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11506200" y="4124325"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>552450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="Oval 93"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11487150" y="5486400"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>666750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="Oval 95"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11487150" y="6743700"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="Oval 101"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11515725" y="8077200"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="Oval 102"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11487150" y="8877300"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>438150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>581025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="Oval 103"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11496675" y="9896475"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="Oval 104"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11506200" y="11172825"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>438150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>581025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="Oval 105"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11506200" y="12182475"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>495300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>638175</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="Oval 106"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11449050" y="14144625"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>514350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="Oval 107"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11458575" y="15354300"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>533400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>676275</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="Oval 108"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11458575" y="16659225"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>485775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>628650</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="Oval 109"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11477625" y="18326100"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="Oval 110"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11496675" y="19345275"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="Oval 111"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11506200" y="19897725"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="Oval 112"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11496675" y="20507325"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="Oval 113"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11506200" y="21059775"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="Oval 114"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11487150" y="21688425"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="Oval 115"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11496675" y="22259925"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>542925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="Oval 116"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11468100" y="23079075"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="Oval 117"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11496675" y="23841075"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="Oval 118"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11468100" y="24650700"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>533400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="Oval 119"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11553825" y="25593675"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>495300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="Oval 120"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11496675" y="26508075"/>
-          <a:ext cx="152400" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7621,11 +7628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7634,30 +7641,28 @@
     <col min="2" max="2" width="20.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="45.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="38.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="38.28515625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="9" max="9" width="27.85546875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7674,25 +7679,19 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -7700,478 +7699,430 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="153" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D29" s="3">
         <v>20</v>
@@ -8181,9 +8132,6 @@
       </c>
       <c r="H29" s="3">
         <v>10.5</v>
-      </c>
-      <c r="J29" s="3">
-        <v>14.5</v>
       </c>
     </row>
   </sheetData>
@@ -8241,26 +8189,10 @@
     <hyperlink ref="E27" r:id="rId48"/>
     <hyperlink ref="G27" r:id="rId49" location="content-moderation"/>
     <hyperlink ref="I27" r:id="rId50"/>
-    <hyperlink ref="K3" r:id="rId51"/>
-    <hyperlink ref="K4" r:id="rId52"/>
-    <hyperlink ref="K5" r:id="rId53"/>
-    <hyperlink ref="K6" r:id="rId54"/>
-    <hyperlink ref="K7" r:id="rId55"/>
-    <hyperlink ref="K8" r:id="rId56"/>
-    <hyperlink ref="K9" r:id="rId57"/>
-    <hyperlink ref="K10" r:id="rId58"/>
-    <hyperlink ref="K12" r:id="rId59"/>
-    <hyperlink ref="K13" r:id="rId60"/>
-    <hyperlink ref="K14" r:id="rId61"/>
-    <hyperlink ref="K15" r:id="rId62"/>
-    <hyperlink ref="K23" r:id="rId63"/>
-    <hyperlink ref="K24" r:id="rId64"/>
-    <hyperlink ref="K26" r:id="rId65"/>
-    <hyperlink ref="K27" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId67"/>
-  <drawing r:id="rId68"/>
+  <pageSetup orientation="portrait" r:id="rId51"/>
+  <drawing r:id="rId52"/>
 </worksheet>
 </file>
 
@@ -8268,8 +8200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D23" sqref="B23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8283,369 +8215,369 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="8" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>4</v>
+      <c r="D18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="11" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>78</v>
       </c>
+      <c r="D20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>6</v>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="D23" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>20</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>28</v>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -8682,8 +8614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8697,350 +8629,350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="11"/>
+      <c r="B4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>7</v>
+      <c r="E18" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>10</v>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>14</v>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>17</v>
+      <c r="D21" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="D22" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -9076,8 +9008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9091,216 +9023,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="B4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="11" t="s">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>33</v>
+      <c r="B14" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -9323,306 +9255,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26" style="6" customWidth="1"/>
-    <col min="4" max="4" width="69" style="6" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2"/>
-    <hyperlink ref="E7" r:id="rId3"/>
-    <hyperlink ref="E8" r:id="rId4"/>
-    <hyperlink ref="E9" r:id="rId5"/>
-    <hyperlink ref="E10" r:id="rId6"/>
-    <hyperlink ref="E11" r:id="rId7"/>
-    <hyperlink ref="E12" r:id="rId8"/>
-    <hyperlink ref="E13" r:id="rId9"/>
-    <hyperlink ref="E14" r:id="rId10"/>
-    <hyperlink ref="E15" r:id="rId11"/>
-    <hyperlink ref="E16" r:id="rId12"/>
-    <hyperlink ref="E17" r:id="rId13"/>
-    <hyperlink ref="E4" r:id="rId14" location="section-12"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
-</worksheet>
 </file>
--- a/OpenAI/Document/OpenAI.xlsx
+++ b/OpenAI/Document/OpenAI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" tabRatio="721" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" tabRatio="721" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AI_Vendor_List" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="236">
   <si>
     <t>Sl No</t>
   </si>
@@ -903,6 +903,33 @@
   </si>
   <si>
     <t>Microsoft Azure AI Capability Analysis</t>
+  </si>
+  <si>
+    <t>Azure Bot Services</t>
+  </si>
+  <si>
+    <t>Standard Channels - Free - unlimited messages
+Standard Channels - S1 - Unlimited messages
+Premium Channels - 10,000 messages / Month
+Premium Channels - $0.50 / 1,000 messages</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/pricing/details/bot-services/</t>
+  </si>
+  <si>
+    <t>Azure Standard Text Requests</t>
+  </si>
+  <si>
+    <t>$1,200 per 1M transactions
+$5,100 per 5M transactions
+$21,750 per 25M transactions
+Above Limit
+$1.20 per 1,000 prediction transactions
+$1.02 per 1,000 prediction transactions
+$0.87 per 1,000 prediction transactions</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/pricing/details/cognitive-services/language-understanding-intelligent-services/</t>
   </si>
 </sst>
 </file>
@@ -1087,19 +1114,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1112,6 +1130,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2462,26 +2489,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="27.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="15" customWidth="1"/>
     <col min="3" max="3" width="84.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -2501,13 +2528,13 @@
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>138</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2515,13 +2542,13 @@
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2529,13 +2556,13 @@
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>144</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2543,13 +2570,13 @@
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>147</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2557,13 +2584,13 @@
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>150</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2571,13 +2598,13 @@
       <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>215</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="16" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2585,13 +2612,13 @@
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>159</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="16" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2599,13 +2626,13 @@
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>152</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="16" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2613,13 +2640,13 @@
       <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>155</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="16" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2627,13 +2654,13 @@
       <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>162</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="16" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2641,13 +2668,13 @@
       <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>165</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2655,13 +2682,13 @@
       <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>168</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="16" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2669,13 +2696,13 @@
       <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>172</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="16" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2683,13 +2710,13 @@
       <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>176</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="16" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2697,13 +2724,13 @@
       <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>177</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="16" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2711,13 +2738,13 @@
       <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>181</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="16" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2725,13 +2752,13 @@
       <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>203</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="16" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2739,13 +2766,13 @@
       <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="15" t="s">
         <v>206</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="16" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2753,13 +2780,13 @@
       <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="15" t="s">
         <v>209</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="16" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2767,13 +2794,13 @@
       <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="15" t="s">
         <v>212</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="16" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2810,7 +2837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
@@ -2834,17 +2861,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2897,28 +2924,28 @@
       <c r="C3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>135</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="13" t="s">
         <v>135</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="17" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2932,31 +2959,31 @@
       <c r="C4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>135</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>135</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="13" t="s">
         <v>135</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="17" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2970,28 +2997,28 @@
       <c r="C5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>135</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="12" t="s">
         <v>135</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="12" t="s">
         <v>135</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -3008,31 +3035,31 @@
       <c r="C6" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>135</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="12" t="s">
         <v>135</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="12" t="s">
         <v>135</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="12" t="s">
         <v>135</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -3049,31 +3076,31 @@
       <c r="C7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>135</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="12" t="s">
         <v>135</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="12" t="s">
         <v>135</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="12" t="s">
         <v>135</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -3090,28 +3117,28 @@
       <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>135</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="12" t="s">
         <v>135</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="12" t="s">
         <v>135</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="12" t="s">
         <v>135</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -3128,28 +3155,28 @@
       <c r="C9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>135</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="12" t="s">
         <v>135</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="12" t="s">
         <v>135</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -3166,28 +3193,28 @@
       <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>135</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="12" t="s">
         <v>135</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="12" t="s">
         <v>135</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="12" t="s">
         <v>135</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -3204,22 +3231,22 @@
       <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>135</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="17" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3233,28 +3260,28 @@
       <c r="C12" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="12" t="s">
         <v>135</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="12" t="s">
         <v>135</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="12" t="s">
         <v>135</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -3271,31 +3298,31 @@
       <c r="C13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>135</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="12" t="s">
         <v>135</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="12" t="s">
         <v>135</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="12" t="s">
         <v>135</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -3312,28 +3339,28 @@
       <c r="C14" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="12" t="s">
         <v>135</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="12" t="s">
         <v>135</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="L14" s="17" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3347,31 +3374,31 @@
       <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>135</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="12" t="s">
         <v>135</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="12" t="s">
         <v>135</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="17" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3385,25 +3412,25 @@
       <c r="C16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="13" t="s">
         <v>135</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="17" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3417,22 +3444,22 @@
       <c r="C17" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="17" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3446,22 +3473,22 @@
       <c r="C18" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="17" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3475,22 +3502,22 @@
       <c r="C19" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="17" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3504,22 +3531,22 @@
       <c r="C20" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="17" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3533,22 +3560,22 @@
       <c r="C21" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="17" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3562,22 +3589,22 @@
       <c r="C22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="17" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3591,31 +3618,31 @@
       <c r="C23" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>135</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="12" t="s">
         <v>135</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="12" t="s">
         <v>135</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="12" t="s">
         <v>135</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -3632,28 +3659,28 @@
       <c r="C24" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="12" t="s">
         <v>135</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="12" t="s">
         <v>135</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="13" t="s">
         <v>135</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="12" t="s">
         <v>135</v>
       </c>
       <c r="M24" s="1" t="s">
@@ -3670,25 +3697,25 @@
       <c r="C25" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="13" t="s">
         <v>135</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="12" t="s">
         <v>135</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="17" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3702,31 +3729,31 @@
       <c r="C26" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="12" t="s">
         <v>135</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="12" t="s">
         <v>135</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="12" t="s">
         <v>135</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -3743,31 +3770,31 @@
       <c r="C27" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="13" t="s">
         <v>135</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="12" t="s">
         <v>135</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="12" t="s">
         <v>135</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="12" t="s">
         <v>135</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="L27" s="12" t="s">
         <v>135</v>
       </c>
       <c r="M27" s="1" t="s">
@@ -3904,13 +3931,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -4374,13 +4401,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -4791,13 +4818,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -5136,13 +5163,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -5446,10 +5473,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5463,13 +5490,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -5497,190 +5524,197 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="C5" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>218</v>
-      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>226</v>
@@ -5688,35 +5722,52 @@
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5724,23 +5775,25 @@
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" location="overview"/>
-    <hyperlink ref="E8" r:id="rId2"/>
-    <hyperlink ref="E9" r:id="rId3"/>
-    <hyperlink ref="E10" r:id="rId4"/>
-    <hyperlink ref="E11" r:id="rId5"/>
-    <hyperlink ref="E12" r:id="rId6"/>
-    <hyperlink ref="E13" r:id="rId7"/>
-    <hyperlink ref="E14" r:id="rId8" location="overview"/>
-    <hyperlink ref="E15" r:id="rId9"/>
-    <hyperlink ref="E16" r:id="rId10"/>
-    <hyperlink ref="E17" r:id="rId11"/>
-    <hyperlink ref="E18" r:id="rId12"/>
+    <hyperlink ref="E8" r:id="rId1" location="overview"/>
+    <hyperlink ref="E9" r:id="rId2"/>
+    <hyperlink ref="E10" r:id="rId3"/>
+    <hyperlink ref="E11" r:id="rId4"/>
+    <hyperlink ref="E12" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="E14" r:id="rId7"/>
+    <hyperlink ref="E15" r:id="rId8" location="overview"/>
+    <hyperlink ref="E16" r:id="rId9"/>
+    <hyperlink ref="E17" r:id="rId10"/>
+    <hyperlink ref="E18" r:id="rId11"/>
+    <hyperlink ref="E19" r:id="rId12"/>
+    <hyperlink ref="E5" r:id="rId13"/>
+    <hyperlink ref="E6" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/OpenAI/Document/OpenAI.xlsx
+++ b/OpenAI/Document/OpenAI.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" tabRatio="721" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" tabRatio="721" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AI_Vendor_List" sheetId="7" r:id="rId1"/>
     <sheet name="Summary_Capabilities" sheetId="1" r:id="rId2"/>
     <sheet name="OpenAI" sheetId="4" r:id="rId3"/>
-    <sheet name="DeepAI" sheetId="2" r:id="rId4"/>
-    <sheet name="Amazon_Rekognition" sheetId="5" r:id="rId5"/>
-    <sheet name="GoogleAI" sheetId="8" r:id="rId6"/>
-    <sheet name="Microsoft_Azure_AI" sheetId="6" r:id="rId7"/>
+    <sheet name="Microsoft_Azure_AI" sheetId="6" r:id="rId4"/>
+    <sheet name="GoogleAI" sheetId="8" r:id="rId5"/>
+    <sheet name="DeepAI" sheetId="2" r:id="rId6"/>
+    <sheet name="Amazon_AI" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="278">
   <si>
     <t>Sl No</t>
   </si>
@@ -98,10 +98,6 @@
     <t>https://aws.amazon.com/blogs/machine-learning/part-1-set-up-a-text-summarization-project-with-hugging-face-transformers/</t>
   </si>
   <si>
-    <t>https://beta.openai.com/examples/default-tldr-summary/
-https://openai.com/blog/learning-to-summarize-with-human-feedback/</t>
-  </si>
-  <si>
     <t>Text detection in images</t>
   </si>
   <si>
@@ -147,37 +143,22 @@
     <t>DeepAI</t>
   </si>
   <si>
-    <t>https://deepai.org/publication/a-systematic-review-of-automated-grammar-checking-in-english-language</t>
-  </si>
-  <si>
     <t>English to other languages</t>
   </si>
   <si>
     <t>https://beta.openai.com/examples/default-translate</t>
   </si>
   <si>
-    <t>https://deepai.org/publication/neural-machine-translation-system-of-indic-languages-an-attention-based-approach</t>
-  </si>
-  <si>
     <t>https://aws.amazon.com/translate/</t>
   </si>
   <si>
-    <t>SQL Translate</t>
-  </si>
-  <si>
     <t>https://beta.openai.com/examples/default-sql-translate</t>
   </si>
   <si>
-    <t>https://deepai.org/publication/towards-robustness-of-text-to-sql-models-against-synonym-substitution</t>
-  </si>
-  <si>
     <t>Create tables from long form text by specifying a structure and supplying some examples.</t>
   </si>
   <si>
     <t>https://beta.openai.com/examples/default-parse-data</t>
-  </si>
-  <si>
-    <t>https://deepai.org/machine-learning-model/parseymcparseface</t>
   </si>
   <si>
     <t>https://aws.amazon.com/blogs/machine-learning/segment-paragraphs-and-detect-insights-with-amazon-textract-and-amazon-comprehend/</t>
@@ -315,9 +296,6 @@
     <t>https://cloud.google.com/ai-workshop/experiments/language-emotion</t>
   </si>
   <si>
-    <t>https://cloud.google.com/ai-workshop/experiments/abstractive-document-summarization</t>
-  </si>
-  <si>
     <t>https://cloud.google.com/vision/docs/ocr</t>
   </si>
   <si>
@@ -327,16 +305,7 @@
     <t>https://cloud.google.com/video-intelligence/docs/feature-text-detection</t>
   </si>
   <si>
-    <t>https://cloud.google.com/blog/products/g-suite/everyday-ai-beyond-spell-check-how-google-docs-is-smart-enough-to-correct-grammar</t>
-  </si>
-  <si>
     <t>https://cloud.google.com/translate</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/bigquery/docs/batch-sql-translator</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/blog/products/gcp/structuring-unstructured-text-with-the-google-cloud-natural-language-api</t>
   </si>
   <si>
     <t>https://cloud.google.com/vision/docs/detecting-faces</t>
@@ -377,30 +346,18 @@
     <t>SwapText: Image Based Texts Transferred in Scenes</t>
   </si>
   <si>
-    <t>Grammar checking is the task of detecting and correcting grammatical errors in the text.</t>
-  </si>
-  <si>
     <t>Grammar Correction</t>
   </si>
   <si>
     <t>Translate English text into French, Spanish, and Japanese.</t>
   </si>
   <si>
-    <t>Translate natural language to SQL queries.</t>
-  </si>
-  <si>
     <t>Parsing unstructured data.</t>
   </si>
   <si>
     <t>Explain a piece of Python code in a human-understandable language.</t>
   </si>
   <si>
-    <t>can be able to translate programming languages.</t>
-  </si>
-  <si>
-    <t>To translate from one programming language to another, we can use the comments to specify the source and target languages.</t>
-  </si>
-  <si>
     <t>Create product names from examples of words. Influenced by a community prompt</t>
   </si>
   <si>
@@ -465,18 +422,6 @@
   </si>
   <si>
     <t>https://deepai.org/</t>
-  </si>
-  <si>
-    <t>Amazon Rekognition Capability Analysis</t>
-  </si>
-  <si>
-    <t>Amazon Rekognition</t>
-  </si>
-  <si>
-    <t>Amazon Rekognition offers pre-trained and customizable computer vision (CV) capabilities to extract information and insights from your images and videos.</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/rekognition/</t>
   </si>
   <si>
     <t>GoogleAI</t>
@@ -606,9 +551,6 @@
   </si>
   <si>
     <t>Features</t>
-  </si>
-  <si>
-    <t>Starting at $10 / per features / per month</t>
   </si>
   <si>
     <t>https://www.capterra.com/p/163645/DeepAI/</t>
@@ -779,24 +721,6 @@
     <t>https://cloud.google.com/vision/pricing</t>
   </si>
   <si>
-    <t>Image Processed By Group1 APIs</t>
-  </si>
-  <si>
-    <t>Image Processed By Group2 APIs</t>
-  </si>
-  <si>
-    <t>Streaming Video Analysis</t>
-  </si>
-  <si>
-    <t>Label Detection - $0.00817 / min</t>
-  </si>
-  <si>
-    <t>Stored Video Analysis</t>
-  </si>
-  <si>
-    <t>Media Analysis</t>
-  </si>
-  <si>
     <t>Starting from
 • First 1 million images - $0.001 / image
 • Next 4 million images - $0.0008 / image
@@ -887,12 +811,6 @@
     <t>https://azure.microsoft.com/en-in/blog/text-recognition-for-video-in-microsoft-video-indexer/</t>
   </si>
   <si>
-    <t>https://docs.microsoft.com/en-us/azure/cognitive-services/luis/luis-tutorial-bing-spellcheck</t>
-  </si>
-  <si>
-    <t>https://azure.microsoft.com/en-us/services/cognitive-services/translator/#overview</t>
-  </si>
-  <si>
     <t>https://azure.microsoft.com/en-in/services/cognitive-services/face/</t>
   </si>
   <si>
@@ -908,35 +826,497 @@
     <t>Azure Bot Services</t>
   </si>
   <si>
-    <t>Standard Channels - Free - unlimited messages
-Standard Channels - S1 - Unlimited messages
-Premium Channels - 10,000 messages / Month
-Premium Channels - $0.50 / 1,000 messages</t>
-  </si>
-  <si>
     <t>https://azure.microsoft.com/en-us/pricing/details/bot-services/</t>
   </si>
   <si>
     <t>Azure Standard Text Requests</t>
   </si>
   <si>
-    <t>$1,200 per 1M transactions
-$5,100 per 5M transactions
-$21,750 per 25M transactions
+    <t>https://azure.microsoft.com/en-us/pricing/details/cognitive-services/language-understanding-intelligent-services/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Standard Channels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - Free - unlimited messages
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Standard Channels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - S1 - Unlimited messages
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Premium Channels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - 10,000 messages / Month
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Premium Channels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - $0.50 / 1,000 messages</t>
+    </r>
+  </si>
+  <si>
+    <t>• $1,200 per 1M transactions
+• $5,100 per 5M transactions
+• $21,750 per 25M transactions
 Above Limit
-$1.20 per 1,000 prediction transactions
-$1.02 per 1,000 prediction transactions
-$0.87 per 1,000 prediction transactions</t>
-  </si>
-  <si>
-    <t>https://azure.microsoft.com/en-us/pricing/details/cognitive-services/language-understanding-intelligent-services/</t>
+• $1.20 per 1,000 prediction transactions
+• $1.02 per 1,000 prediction transactions
+• $0.87 per 1,000 prediction transactions</t>
+  </si>
+  <si>
+    <t>Summarization</t>
+  </si>
+  <si>
+    <t>Parsing Unstructured Data</t>
+  </si>
+  <si>
+    <t>Translates difficult text into simpler concepts.</t>
+  </si>
+  <si>
+    <t>Translation</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Open ended conversation with an AI assistant</t>
+  </si>
+  <si>
+    <t>Question and Answering</t>
+  </si>
+  <si>
+    <t>Text to command</t>
+  </si>
+  <si>
+    <t>Translate text into programmatic commands.</t>
+  </si>
+  <si>
+    <t>Corrects the sentence to standard English.</t>
+  </si>
+  <si>
+    <t>API answers the questions based on existing knowledge.</t>
+  </si>
+  <si>
+    <t>Classify items into categories via example, Based on given input examples it classifies the data.</t>
+  </si>
+  <si>
+    <t>Text to SQL Transiation</t>
+  </si>
+  <si>
+    <t>Translate natural language to SQL queries</t>
+  </si>
+  <si>
+    <t>Translate the programming languages</t>
+  </si>
+  <si>
+    <t>To translate from one programming language to another we can use the comments to specify the source and target languages.</t>
+  </si>
+  <si>
+    <t>https://beta.openai.com/examples/default-summarize</t>
+  </si>
+  <si>
+    <t>https://beta.openai.com/examples/default-classification</t>
+  </si>
+  <si>
+    <t>https://beta.openai.com/examples/default-chat</t>
+  </si>
+  <si>
+    <t>https://beta.openai.com/examples/default-qa</t>
+  </si>
+  <si>
+    <t>https://beta.openai.com/examples/default-text-to-command</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/natural-language</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/natural-language/docs/classify-text-tutorial</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/natural-language/docs/classifying-text</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/conversational-ai</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-in/services/cognitive-services/text-analytics/</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/services/cognitive-services/translator/</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/azure/cognitive-services/language-service/custom-classification/quickstart?pivots=language-studio</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/services/bot-services/#overview</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/services/cognitive-services/question-answering/#overview</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/en-us/bing/apis/bing-spell-check-api</t>
+  </si>
+  <si>
+    <t>Text to speech</t>
+  </si>
+  <si>
+    <t>Convert text into humanlike synthesized speech</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/polly/?p=ft&amp;c=ml&amp;z=3</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/text-to-speech/</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/services/cognitive-services/text-to-speech/</t>
+  </si>
+  <si>
+    <t>Speech to text</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/transcribe/?p=ft&amp;c=ml&amp;z=3</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/speech-to-text/</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/services/cognitive-services/speech-to-text/</t>
+  </si>
+  <si>
+    <t>Speech Analysis</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/lex/</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS offers the broadest and deepest set of machine learning services and supporting cloud infrastructure, putting machine learning in the hands of every developer, data scientist and expert practitioner. </t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/free/machine-learning/</t>
+  </si>
+  <si>
+    <t>Amazon AI Capability Analysis</t>
+  </si>
+  <si>
+    <t>Amazon AI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Rekognition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+Image Processed By Group1 APIs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Rekognition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+Image Processed By Group2 APIs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Rekognition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+Streaming Video Analysis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Rekognition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+Stored Video Analysis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Rekognition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+Media Analysis</t>
+    </r>
+  </si>
+  <si>
+    <t>• Speech requests - $0.004 / request
+• Text requests - $0.00075 / request</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/lex/pricing/?p=ft&amp;c=ml&amp;z=3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Lex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+Chatbox</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Polly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+Text to speech</t>
+    </r>
+  </si>
+  <si>
+    <t>• 1000 request, 1000 characters per request - 1 million characters - 23hr 8min speech - $4.00(Standard TTS) - $16.00(Neural TTS)
+• 10000 request, 100 characters per request - 1 million characters - 23hr 8min speech - $4.00(Standard TTS) - $16.00(Neural TTS)</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/polly/pricing/?p=ft&amp;c=ml&amp;z=3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Transcribe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+Speech to text</t>
+    </r>
+  </si>
+  <si>
+    <t>• Tier1 - First 250,000 minutes - $0.02400 / minute
+• Tier2 - Next 750,000 minutes - $0.01500 / minute
+• Tier3 - Next 4,000,000 minutes - $0.01020 / minute
+• Tier4 - Over 5,000,000 minutes - $0.00780 / minute</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/transcribe/pricing/?p=ft&amp;c=ml&amp;z=3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Translation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+Convert English to other language</t>
+    </r>
+  </si>
+  <si>
+    <t>• 1,000 requests, 1,000 characters per request - 1M characters - $15.00</t>
+  </si>
+  <si>
+    <t>Cognitive Services</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-in/pricing/details/cognitive-services/</t>
+  </si>
+  <si>
+    <t>• Label Detection - $0.00817 / min</t>
+  </si>
+  <si>
+    <t>• Starting at $10 / per features / per month</t>
+  </si>
+  <si>
+    <t>• Tag - 0-1M transactions - $1 per 1,000 transactions
+• Face - 1-10M transactions - $0.65 per 1,000 transactions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1036,6 +1416,18 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1079,7 +1471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1132,6 +1524,9 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1142,6 +1537,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1183,12 +1584,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1196,14 +1594,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Vendor</a:t>
+              <a:rPr lang="en-IN" sz="1400" b="1"/>
+              <a:t>No of featurs supported</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> Comparision</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1221,12 +1614,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1239,7 +1629,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2692038495188102E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.67003098571011954"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1249,14 +1649,76 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>(Summary_Capabilities!$D$2,Summary_Capabilities!$F$2,Summary_Capabilities!$H$2,Summary_Capabilities!$J$2,Summary_Capabilities!$L$2)</c:f>
@@ -1266,53 +1728,54 @@
                   <c:v>OpenAI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Microsoft Azure AI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google AI</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>DeepAI</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Amazon Rekognition</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Google AI</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>Microsoft Azure AI</c:v>
+                  <c:v>Amazon AI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Summary_Capabilities!$D$29,Summary_Capabilities!$F$29,Summary_Capabilities!$H$29,Summary_Capabilities!$J$29,Summary_Capabilities!$L$29)</c:f>
+              <c:f>(Summary_Capabilities!$D$36,Summary_Capabilities!$F$36,Summary_Capabilities!$H$36,Summary_Capabilities!$J$36,Summary_Capabilities!$L$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.5</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-84D3-48DA-8C88-24D7F274A5BA}"/>
+              <c16:uniqueId val="{00000000-2CEB-48F6-B26E-9A703D88F6CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1320,11 +1783,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="68961231"/>
-        <c:axId val="68963727"/>
+        <c:axId val="639766096"/>
+        <c:axId val="639766512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68961231"/>
+        <c:axId val="639766096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1352,12 +1815,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1367,7 +1827,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68963727"/>
+        <c:crossAx val="639766512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1375,7 +1835,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68963727"/>
+        <c:axId val="639766512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,12 +1871,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1426,7 +1883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68961231"/>
+        <c:crossAx val="639766096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1444,7 +1901,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="tx1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1462,7 +1919,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2024,13 +2485,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2081,13 +2542,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2138,13 +2599,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2193,20 +2654,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2033346</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1349375</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>879852</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2490,7 +2951,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2503,19 +2964,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="A1" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>2</v>
@@ -2529,13 +2990,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -2543,13 +3004,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2557,13 +3018,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>144</v>
+        <v>252</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2571,13 +3032,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -2585,13 +3046,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -2599,13 +3060,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -2613,13 +3074,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -2627,13 +3088,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -2641,13 +3102,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -2655,13 +3116,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -2669,13 +3130,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -2683,13 +3144,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -2697,13 +3158,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2711,13 +3172,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -2725,13 +3186,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -2739,13 +3200,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -2753,13 +3214,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -2767,13 +3228,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2781,13 +3242,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -2795,13 +3256,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2835,11 +3296,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2849,29 +3310,33 @@
     <col min="3" max="3" width="45.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="38.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="38.28515625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="35.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="38.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="38.42578125" style="4" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2889,102 +3354,102 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>37</v>
+      <c r="F2" s="23" t="s">
+        <v>190</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>88</v>
+      <c r="J2" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>215</v>
+      <c r="L2" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>135</v>
+        <v>195</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="178.5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>135</v>
+        <v>42</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>135</v>
+        <v>235</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>171</v>
+        <v>231</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -2992,119 +3457,113 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>91</v>
+        <v>236</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>237</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>135</v>
+        <v>233</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>121</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>238</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>93</v>
+        <v>234</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -3112,294 +3571,261 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>171</v>
+        <v>220</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>135</v>
+        <v>6</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>171</v>
+        <v>9</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -3407,517 +3833,753 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>135</v>
+        <v>16</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>171</v>
+        <v>27</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>171</v>
+        <v>33</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>171</v>
+        <v>153</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>171</v>
+        <v>45</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>171</v>
+        <v>153</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>171</v>
+        <v>48</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>135</v>
+        <v>112</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>135</v>
+        <v>115</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="C29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="3">
-        <v>20</v>
-      </c>
-      <c r="F29" s="3">
-        <v>18.5</v>
-      </c>
-      <c r="H29" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="J29" s="3">
-        <v>14.5</v>
-      </c>
-      <c r="L29" s="3">
-        <v>12</v>
+      <c r="B30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="C36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="3">
+        <v>24</v>
+      </c>
+      <c r="F36" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="H36" s="3">
+        <v>16</v>
+      </c>
+      <c r="J36" s="3">
+        <v>15</v>
+      </c>
+      <c r="L36" s="3">
+        <v>11.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="G4" r:id="rId4"/>
-    <hyperlink ref="I4" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="E6" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="E9" r:id="rId15"/>
-    <hyperlink ref="G9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="E12" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="E13" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
-    <hyperlink ref="E14" r:id="rId25"/>
-    <hyperlink ref="G14" r:id="rId26"/>
-    <hyperlink ref="E15" r:id="rId27"/>
-    <hyperlink ref="G15" r:id="rId28"/>
-    <hyperlink ref="I15" r:id="rId29"/>
-    <hyperlink ref="E16" r:id="rId30"/>
-    <hyperlink ref="E17" r:id="rId31"/>
-    <hyperlink ref="E18" r:id="rId32"/>
-    <hyperlink ref="E19" r:id="rId33"/>
-    <hyperlink ref="E20" r:id="rId34"/>
-    <hyperlink ref="E21" r:id="rId35"/>
-    <hyperlink ref="E22" r:id="rId36"/>
-    <hyperlink ref="E23" r:id="rId37"/>
-    <hyperlink ref="G23" r:id="rId38" location="facial-recognition"/>
-    <hyperlink ref="I23" r:id="rId39"/>
-    <hyperlink ref="G24" r:id="rId40" location="facial-expression-recognition"/>
-    <hyperlink ref="I24" r:id="rId41"/>
-    <hyperlink ref="G16" r:id="rId42"/>
-    <hyperlink ref="E25" r:id="rId43"/>
-    <hyperlink ref="G25" r:id="rId44"/>
-    <hyperlink ref="E26" r:id="rId45"/>
-    <hyperlink ref="G26" r:id="rId46" location="scene-recognition"/>
-    <hyperlink ref="I26" r:id="rId47"/>
-    <hyperlink ref="E27" r:id="rId48"/>
-    <hyperlink ref="G27" r:id="rId49" location="content-moderation"/>
-    <hyperlink ref="I27" r:id="rId50"/>
-    <hyperlink ref="K3" r:id="rId51"/>
-    <hyperlink ref="K4" r:id="rId52"/>
-    <hyperlink ref="K5" r:id="rId53"/>
-    <hyperlink ref="K6" r:id="rId54"/>
-    <hyperlink ref="K7" r:id="rId55"/>
-    <hyperlink ref="K8" r:id="rId56"/>
-    <hyperlink ref="K9" r:id="rId57"/>
-    <hyperlink ref="K10" r:id="rId58"/>
-    <hyperlink ref="K12" r:id="rId59"/>
-    <hyperlink ref="K13" r:id="rId60"/>
-    <hyperlink ref="K14" r:id="rId61"/>
-    <hyperlink ref="K15" r:id="rId62"/>
-    <hyperlink ref="K23" r:id="rId63"/>
-    <hyperlink ref="K24" r:id="rId64"/>
-    <hyperlink ref="K26" r:id="rId65"/>
-    <hyperlink ref="K27" r:id="rId66"/>
-    <hyperlink ref="M5" r:id="rId67" location="overview"/>
-    <hyperlink ref="M6" r:id="rId68"/>
-    <hyperlink ref="M7" r:id="rId69"/>
-    <hyperlink ref="M8" r:id="rId70"/>
-    <hyperlink ref="M9" r:id="rId71"/>
-    <hyperlink ref="M10" r:id="rId72"/>
-    <hyperlink ref="M12" r:id="rId73"/>
-    <hyperlink ref="M13" r:id="rId74" location="overview"/>
-    <hyperlink ref="M23" r:id="rId75"/>
-    <hyperlink ref="M24" r:id="rId76"/>
-    <hyperlink ref="M26" r:id="rId77"/>
-    <hyperlink ref="M27" r:id="rId78"/>
+    <hyperlink ref="E13" r:id="rId1"/>
+    <hyperlink ref="K13" r:id="rId2"/>
+    <hyperlink ref="E14" r:id="rId3"/>
+    <hyperlink ref="K14" r:id="rId4"/>
+    <hyperlink ref="M14" r:id="rId5"/>
+    <hyperlink ref="E15" r:id="rId6"/>
+    <hyperlink ref="K15" r:id="rId7"/>
+    <hyperlink ref="E16" r:id="rId8"/>
+    <hyperlink ref="K16" r:id="rId9"/>
+    <hyperlink ref="M16" r:id="rId10"/>
+    <hyperlink ref="K17" r:id="rId11"/>
+    <hyperlink ref="M17" r:id="rId12"/>
+    <hyperlink ref="E18" r:id="rId13"/>
+    <hyperlink ref="K18" r:id="rId14"/>
+    <hyperlink ref="K19" r:id="rId15"/>
+    <hyperlink ref="M19" r:id="rId16"/>
+    <hyperlink ref="K20" r:id="rId17"/>
+    <hyperlink ref="E21" r:id="rId18"/>
+    <hyperlink ref="E22" r:id="rId19"/>
+    <hyperlink ref="E23" r:id="rId20"/>
+    <hyperlink ref="E24" r:id="rId21"/>
+    <hyperlink ref="E25" r:id="rId22"/>
+    <hyperlink ref="E26" r:id="rId23"/>
+    <hyperlink ref="E27" r:id="rId24"/>
+    <hyperlink ref="K27" r:id="rId25" location="facial-recognition"/>
+    <hyperlink ref="M27" r:id="rId26"/>
+    <hyperlink ref="K28" r:id="rId27" location="facial-expression-recognition"/>
+    <hyperlink ref="M28" r:id="rId28"/>
+    <hyperlink ref="K21" r:id="rId29"/>
+    <hyperlink ref="E29" r:id="rId30"/>
+    <hyperlink ref="K29" r:id="rId31"/>
+    <hyperlink ref="E30" r:id="rId32"/>
+    <hyperlink ref="K30" r:id="rId33" location="scene-recognition"/>
+    <hyperlink ref="M30" r:id="rId34"/>
+    <hyperlink ref="E31" r:id="rId35"/>
+    <hyperlink ref="K31" r:id="rId36" location="content-moderation"/>
+    <hyperlink ref="M31" r:id="rId37"/>
+    <hyperlink ref="I13" r:id="rId38"/>
+    <hyperlink ref="I14" r:id="rId39"/>
+    <hyperlink ref="I15" r:id="rId40"/>
+    <hyperlink ref="I16" r:id="rId41"/>
+    <hyperlink ref="I17" r:id="rId42"/>
+    <hyperlink ref="I18" r:id="rId43"/>
+    <hyperlink ref="I19" r:id="rId44"/>
+    <hyperlink ref="I27" r:id="rId45"/>
+    <hyperlink ref="I28" r:id="rId46"/>
+    <hyperlink ref="I30" r:id="rId47"/>
+    <hyperlink ref="I31" r:id="rId48"/>
+    <hyperlink ref="G15" r:id="rId49" location="overview"/>
+    <hyperlink ref="G16" r:id="rId50"/>
+    <hyperlink ref="G17" r:id="rId51"/>
+    <hyperlink ref="G18" r:id="rId52"/>
+    <hyperlink ref="G19" r:id="rId53"/>
+    <hyperlink ref="G27" r:id="rId54"/>
+    <hyperlink ref="G28" r:id="rId55"/>
+    <hyperlink ref="G30" r:id="rId56"/>
+    <hyperlink ref="G31" r:id="rId57"/>
+    <hyperlink ref="E3" r:id="rId58"/>
+    <hyperlink ref="E4" r:id="rId59"/>
+    <hyperlink ref="E5" r:id="rId60"/>
+    <hyperlink ref="E6" r:id="rId61"/>
+    <hyperlink ref="E7" r:id="rId62"/>
+    <hyperlink ref="E8" r:id="rId63"/>
+    <hyperlink ref="E9" r:id="rId64"/>
+    <hyperlink ref="E10" r:id="rId65"/>
+    <hyperlink ref="E11" r:id="rId66"/>
+    <hyperlink ref="E12" r:id="rId67"/>
+    <hyperlink ref="K3" r:id="rId68"/>
+    <hyperlink ref="K6" r:id="rId69"/>
+    <hyperlink ref="I4" r:id="rId70"/>
+    <hyperlink ref="I5" r:id="rId71"/>
+    <hyperlink ref="I3" r:id="rId72"/>
+    <hyperlink ref="I6" r:id="rId73"/>
+    <hyperlink ref="I7" r:id="rId74"/>
+    <hyperlink ref="G3" r:id="rId75"/>
+    <hyperlink ref="G4" r:id="rId76"/>
+    <hyperlink ref="G5" r:id="rId77"/>
+    <hyperlink ref="G6" r:id="rId78"/>
+    <hyperlink ref="G7" r:id="rId79" location="overview"/>
+    <hyperlink ref="G8" r:id="rId80" location="overview"/>
+    <hyperlink ref="G9" r:id="rId81"/>
+    <hyperlink ref="M5" r:id="rId82"/>
+    <hyperlink ref="M32" r:id="rId83"/>
+    <hyperlink ref="I32" r:id="rId84"/>
+    <hyperlink ref="G32" r:id="rId85"/>
+    <hyperlink ref="M33" r:id="rId86"/>
+    <hyperlink ref="I33" r:id="rId87"/>
+    <hyperlink ref="G33" r:id="rId88"/>
+    <hyperlink ref="M7" r:id="rId89"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId79"/>
-  <drawing r:id="rId80"/>
+  <pageSetup orientation="portrait" r:id="rId90"/>
+  <drawing r:id="rId91"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3931,23 +4593,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>2</v>
@@ -3957,11 +4619,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
@@ -3970,16 +4632,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -3987,16 +4649,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -4004,195 +4666,195 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -4200,33 +4862,33 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -4234,16 +4896,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -4251,16 +4913,16 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -4268,16 +4930,16 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -4285,33 +4947,33 @@
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -4319,16 +4981,16 @@
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -4336,16 +4998,84 @@
         <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>28</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>24</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>25</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4356,38 +5086,824 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E9" r:id="rId2"/>
-    <hyperlink ref="E10" r:id="rId3"/>
-    <hyperlink ref="E11" r:id="rId4"/>
-    <hyperlink ref="E12" r:id="rId5"/>
-    <hyperlink ref="E14" r:id="rId6"/>
-    <hyperlink ref="E15" r:id="rId7"/>
-    <hyperlink ref="E16" r:id="rId8"/>
-    <hyperlink ref="E17" r:id="rId9"/>
-    <hyperlink ref="E18" r:id="rId10"/>
-    <hyperlink ref="E19" r:id="rId11"/>
-    <hyperlink ref="E20" r:id="rId12"/>
-    <hyperlink ref="E21" r:id="rId13"/>
-    <hyperlink ref="E22" r:id="rId14"/>
-    <hyperlink ref="E23" r:id="rId15"/>
-    <hyperlink ref="E24" r:id="rId16"/>
-    <hyperlink ref="E25" r:id="rId17"/>
-    <hyperlink ref="E26" r:id="rId18"/>
-    <hyperlink ref="E27" r:id="rId19"/>
-    <hyperlink ref="E6" r:id="rId20"/>
-    <hyperlink ref="E7" r:id="rId21"/>
+    <hyperlink ref="E19" r:id="rId2"/>
+    <hyperlink ref="E20" r:id="rId3"/>
+    <hyperlink ref="E21" r:id="rId4"/>
+    <hyperlink ref="E22" r:id="rId5"/>
+    <hyperlink ref="E23" r:id="rId6"/>
+    <hyperlink ref="E24" r:id="rId7"/>
+    <hyperlink ref="E25" r:id="rId8"/>
+    <hyperlink ref="E26" r:id="rId9"/>
+    <hyperlink ref="E27" r:id="rId10"/>
+    <hyperlink ref="E28" r:id="rId11"/>
+    <hyperlink ref="E29" r:id="rId12"/>
+    <hyperlink ref="E30" r:id="rId13"/>
+    <hyperlink ref="E31" r:id="rId14"/>
+    <hyperlink ref="E6" r:id="rId15"/>
+    <hyperlink ref="E7" r:id="rId16"/>
+    <hyperlink ref="E9" r:id="rId17"/>
+    <hyperlink ref="E10" r:id="rId18"/>
+    <hyperlink ref="E11" r:id="rId19"/>
+    <hyperlink ref="E12" r:id="rId20"/>
+    <hyperlink ref="E13" r:id="rId21"/>
+    <hyperlink ref="E14" r:id="rId22"/>
+    <hyperlink ref="E15" r:id="rId23"/>
+    <hyperlink ref="E16" r:id="rId24"/>
+    <hyperlink ref="E17" r:id="rId25"/>
+    <hyperlink ref="E18" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26" style="6" customWidth="1"/>
+    <col min="4" max="4" width="69" style="6" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A8:C8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E15" r:id="rId1" location="overview"/>
+    <hyperlink ref="E16" r:id="rId2"/>
+    <hyperlink ref="E17" r:id="rId3"/>
+    <hyperlink ref="E18" r:id="rId4"/>
+    <hyperlink ref="E19" r:id="rId5"/>
+    <hyperlink ref="E20" r:id="rId6"/>
+    <hyperlink ref="E21" r:id="rId7"/>
+    <hyperlink ref="E22" r:id="rId8"/>
+    <hyperlink ref="E23" r:id="rId9"/>
+    <hyperlink ref="E5" r:id="rId10"/>
+    <hyperlink ref="E6" r:id="rId11"/>
+    <hyperlink ref="E9" r:id="rId12"/>
+    <hyperlink ref="E10" r:id="rId13"/>
+    <hyperlink ref="E11" r:id="rId14"/>
+    <hyperlink ref="E12" r:id="rId15" location="overview"/>
+    <hyperlink ref="E13" r:id="rId16" location="overview"/>
+    <hyperlink ref="E14" r:id="rId17"/>
+    <hyperlink ref="E24" r:id="rId18"/>
+    <hyperlink ref="E25" r:id="rId19"/>
+    <hyperlink ref="E7" r:id="rId20"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26" style="6" customWidth="1"/>
+    <col min="4" max="4" width="69" style="6" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1"/>
+    <hyperlink ref="E12" r:id="rId2"/>
+    <hyperlink ref="E13" r:id="rId3"/>
+    <hyperlink ref="E14" r:id="rId4"/>
+    <hyperlink ref="E15" r:id="rId5"/>
+    <hyperlink ref="E16" r:id="rId6"/>
+    <hyperlink ref="E17" r:id="rId7"/>
+    <hyperlink ref="E18" r:id="rId8"/>
+    <hyperlink ref="E5" r:id="rId9"/>
+    <hyperlink ref="E7" r:id="rId10"/>
+    <hyperlink ref="E8" r:id="rId11"/>
+    <hyperlink ref="E9" r:id="rId12"/>
+    <hyperlink ref="E10" r:id="rId13"/>
+    <hyperlink ref="E19" r:id="rId14"/>
+    <hyperlink ref="E20" r:id="rId15"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4401,23 +5917,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>2</v>
@@ -4427,11 +5943,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
@@ -4440,331 +5956,263 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>16</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>17</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>18</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>19</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4774,37 +6222,33 @@
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1"/>
-    <hyperlink ref="E8" r:id="rId2"/>
-    <hyperlink ref="E9" r:id="rId3"/>
-    <hyperlink ref="E10" r:id="rId4"/>
-    <hyperlink ref="E11" r:id="rId5"/>
-    <hyperlink ref="E12" r:id="rId6"/>
-    <hyperlink ref="E13" r:id="rId7"/>
-    <hyperlink ref="E14" r:id="rId8"/>
-    <hyperlink ref="E15" r:id="rId9"/>
-    <hyperlink ref="E16" r:id="rId10"/>
-    <hyperlink ref="E17" r:id="rId11"/>
-    <hyperlink ref="E18" r:id="rId12"/>
-    <hyperlink ref="E19" r:id="rId13"/>
-    <hyperlink ref="E20" r:id="rId14" location="facial-recognition"/>
-    <hyperlink ref="E21" r:id="rId15" location="facial-expression-recognition"/>
-    <hyperlink ref="E22" r:id="rId16"/>
-    <hyperlink ref="E23" r:id="rId17" location="scene-recognition"/>
-    <hyperlink ref="E24" r:id="rId18" location="content-moderation"/>
-    <hyperlink ref="E5" r:id="rId19"/>
+    <hyperlink ref="E8" r:id="rId1"/>
+    <hyperlink ref="E9" r:id="rId2"/>
+    <hyperlink ref="E10" r:id="rId3"/>
+    <hyperlink ref="E11" r:id="rId4"/>
+    <hyperlink ref="E12" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="E14" r:id="rId7"/>
+    <hyperlink ref="E15" r:id="rId8"/>
+    <hyperlink ref="E16" r:id="rId9" location="facial-recognition"/>
+    <hyperlink ref="E17" r:id="rId10" location="facial-expression-recognition"/>
+    <hyperlink ref="E18" r:id="rId11"/>
+    <hyperlink ref="E19" r:id="rId12" location="scene-recognition"/>
+    <hyperlink ref="E20" r:id="rId13" location="content-moderation"/>
+    <hyperlink ref="E5" r:id="rId14"/>
+    <hyperlink ref="E7" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4818,23 +6262,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>2</v>
@@ -4844,11 +6288,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
@@ -4857,16 +6301,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4874,16 +6318,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4891,16 +6335,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4908,16 +6352,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4925,875 +6369,348 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>7</v>
-      </c>
       <c r="B12" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
+      <c r="D25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E11" r:id="rId2"/>
-    <hyperlink ref="E12" r:id="rId3"/>
-    <hyperlink ref="E13" r:id="rId4"/>
-    <hyperlink ref="E14" r:id="rId5"/>
-    <hyperlink ref="E15" r:id="rId6"/>
-    <hyperlink ref="E16" r:id="rId7"/>
-    <hyperlink ref="E17" r:id="rId8"/>
-    <hyperlink ref="E18" r:id="rId9"/>
-    <hyperlink ref="E19" r:id="rId10"/>
-    <hyperlink ref="E20" r:id="rId11"/>
+    <hyperlink ref="E17" r:id="rId2"/>
+    <hyperlink ref="E18" r:id="rId3"/>
+    <hyperlink ref="E19" r:id="rId4"/>
+    <hyperlink ref="E20" r:id="rId5"/>
+    <hyperlink ref="E21" r:id="rId6"/>
+    <hyperlink ref="E15" r:id="rId7"/>
+    <hyperlink ref="E22" r:id="rId8"/>
+    <hyperlink ref="E23" r:id="rId9"/>
+    <hyperlink ref="E24" r:id="rId10"/>
+    <hyperlink ref="E25" r:id="rId11"/>
     <hyperlink ref="E6" r:id="rId12"/>
     <hyperlink ref="E7" r:id="rId13"/>
     <hyperlink ref="E8" r:id="rId14"/>
     <hyperlink ref="E9" r:id="rId15"/>
+    <hyperlink ref="E26" r:id="rId16"/>
+    <hyperlink ref="E27" r:id="rId17"/>
+    <hyperlink ref="E16" r:id="rId18"/>
+    <hyperlink ref="E10" r:id="rId19"/>
+    <hyperlink ref="E11" r:id="rId20"/>
+    <hyperlink ref="E12" r:id="rId21"/>
+    <hyperlink ref="E13" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26" style="6" customWidth="1"/>
-    <col min="4" max="4" width="69" style="6" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>11</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>12</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>13</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>14</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1"/>
-    <hyperlink ref="E8" r:id="rId2"/>
-    <hyperlink ref="E9" r:id="rId3"/>
-    <hyperlink ref="E10" r:id="rId4"/>
-    <hyperlink ref="E11" r:id="rId5"/>
-    <hyperlink ref="E12" r:id="rId6"/>
-    <hyperlink ref="E13" r:id="rId7"/>
-    <hyperlink ref="E14" r:id="rId8"/>
-    <hyperlink ref="E15" r:id="rId9"/>
-    <hyperlink ref="E16" r:id="rId10"/>
-    <hyperlink ref="E17" r:id="rId11"/>
-    <hyperlink ref="E18" r:id="rId12"/>
-    <hyperlink ref="E19" r:id="rId13"/>
-    <hyperlink ref="E5" r:id="rId14"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26" style="6" customWidth="1"/>
-    <col min="4" max="4" width="69" style="6" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>7</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>13</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>14</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A7:C7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" location="overview"/>
-    <hyperlink ref="E9" r:id="rId2"/>
-    <hyperlink ref="E10" r:id="rId3"/>
-    <hyperlink ref="E11" r:id="rId4"/>
-    <hyperlink ref="E12" r:id="rId5"/>
-    <hyperlink ref="E13" r:id="rId6"/>
-    <hyperlink ref="E14" r:id="rId7"/>
-    <hyperlink ref="E15" r:id="rId8" location="overview"/>
-    <hyperlink ref="E16" r:id="rId9"/>
-    <hyperlink ref="E17" r:id="rId10"/>
-    <hyperlink ref="E18" r:id="rId11"/>
-    <hyperlink ref="E19" r:id="rId12"/>
-    <hyperlink ref="E5" r:id="rId13"/>
-    <hyperlink ref="E6" r:id="rId14"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/OpenAI/Document/OpenAI.xlsx
+++ b/OpenAI/Document/OpenAI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" tabRatio="721" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" tabRatio="721" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AI_Vendor_List" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="284">
   <si>
     <t>Sl No</t>
   </si>
@@ -1311,12 +1311,71 @@
     <t>• Tag - 0-1M transactions - $1 per 1,000 transactions
 • Face - 1-10M transactions - $0.65 per 1,000 transactions</t>
   </si>
+  <si>
+    <t>Search Functionality</t>
+  </si>
+  <si>
+    <t>does it support search functionality from the content given</t>
+  </si>
+  <si>
+    <t>https://beta.openai.com/docs/guides/search#:~:text=The%20Search%20endpoint%20(%2Fsearch),are%20to%20the%20input%20query.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/azure/search/search-what-is-azure-search</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Translation model</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://aws.amazon.com/translate/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lex Model
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://aws.amazon.com/lex/</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1427,6 +1486,12 @@
       <sz val="10"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1744,15 +1809,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Summary_Capabilities!$D$36,Summary_Capabilities!$F$36,Summary_Capabilities!$H$36,Summary_Capabilities!$J$36,Summary_Capabilities!$L$36)</c:f>
+              <c:f>(Summary_Capabilities!$D$37,Summary_Capabilities!$F$37,Summary_Capabilities!$H$37,Summary_Capabilities!$J$37,Summary_Capabilities!$L$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
@@ -2485,13 +2550,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2542,13 +2607,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2599,13 +2664,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2656,13 +2721,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1349375</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2951,7 +3016,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3296,11 +3361,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3487,7 +3552,7 @@
         <v>121</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>39</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -3528,7 +3593,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -3563,7 +3628,7 @@
         <v>121</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -3717,56 +3782,53 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D14" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>153</v>
@@ -3775,258 +3837,261 @@
         <v>121</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" s="1" t="s">
+      <c r="J15" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="L15" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D16" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="F16" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="H16" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K15" s="1" t="s">
+      <c r="J16" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L16" s="17" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>153</v>
+        <v>99</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>121</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>121</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>121</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>121</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>121</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>121</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>121</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>153</v>
+        <v>24</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>153</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>153</v>
@@ -4034,31 +4099,31 @@
       <c r="H21" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="12" t="s">
         <v>121</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="L21" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>121</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>153</v>
@@ -4066,8 +4131,11 @@
       <c r="H22" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J22" s="17" t="s">
-        <v>153</v>
+      <c r="J22" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="L22" s="17" t="s">
         <v>153</v>
@@ -4075,19 +4143,19 @@
     </row>
     <row r="23" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>121</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>153</v>
@@ -4104,19 +4172,19 @@
     </row>
     <row r="24" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>121</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>153</v>
@@ -4131,21 +4199,21 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>121</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>153</v>
@@ -4160,21 +4228,21 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>121</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>153</v>
@@ -4189,59 +4257,50 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="D28" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>153</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>121</v>
@@ -4249,109 +4308,106 @@
       <c r="G28" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="12" t="s">
         <v>121</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K28" s="1" t="s">
+      <c r="J29" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L28" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="M28" s="1" t="s">
+      <c r="L29" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    <row r="30" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>121</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>93</v>
+      <c r="F30" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>121</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>121</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -4361,68 +4417,74 @@
         <v>121</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>121</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>121</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L31" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>121</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>153</v>
+        <v>119</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>121</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>121</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>153</v>
+        <v>94</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="L32" s="12" t="s">
         <v>121</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>243</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>242</v>
@@ -4434,13 +4496,13 @@
         <v>121</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>121</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>153</v>
@@ -4449,27 +4511,62 @@
         <v>121</v>
       </c>
       <c r="M33" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="C36" s="2" t="s">
+    <row r="37" spans="1:13" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="C37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="3">
-        <v>24</v>
-      </c>
-      <c r="F36" s="3">
-        <v>17.5</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="D37" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="F37" s="3">
+        <v>18</v>
+      </c>
+      <c r="H37" s="3">
         <v>16</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J37" s="3">
         <v>15</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L37" s="3">
         <v>11.5</v>
       </c>
     </row>
@@ -4478,63 +4575,63 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1"/>
-    <hyperlink ref="K13" r:id="rId2"/>
-    <hyperlink ref="E14" r:id="rId3"/>
-    <hyperlink ref="K14" r:id="rId4"/>
-    <hyperlink ref="M14" r:id="rId5"/>
-    <hyperlink ref="E15" r:id="rId6"/>
-    <hyperlink ref="K15" r:id="rId7"/>
-    <hyperlink ref="E16" r:id="rId8"/>
-    <hyperlink ref="K16" r:id="rId9"/>
-    <hyperlink ref="M16" r:id="rId10"/>
-    <hyperlink ref="K17" r:id="rId11"/>
-    <hyperlink ref="M17" r:id="rId12"/>
-    <hyperlink ref="E18" r:id="rId13"/>
-    <hyperlink ref="K18" r:id="rId14"/>
-    <hyperlink ref="K19" r:id="rId15"/>
-    <hyperlink ref="M19" r:id="rId16"/>
-    <hyperlink ref="K20" r:id="rId17"/>
-    <hyperlink ref="E21" r:id="rId18"/>
-    <hyperlink ref="E22" r:id="rId19"/>
-    <hyperlink ref="E23" r:id="rId20"/>
-    <hyperlink ref="E24" r:id="rId21"/>
-    <hyperlink ref="E25" r:id="rId22"/>
-    <hyperlink ref="E26" r:id="rId23"/>
-    <hyperlink ref="E27" r:id="rId24"/>
-    <hyperlink ref="K27" r:id="rId25" location="facial-recognition"/>
-    <hyperlink ref="M27" r:id="rId26"/>
-    <hyperlink ref="K28" r:id="rId27" location="facial-expression-recognition"/>
-    <hyperlink ref="M28" r:id="rId28"/>
-    <hyperlink ref="K21" r:id="rId29"/>
-    <hyperlink ref="E29" r:id="rId30"/>
-    <hyperlink ref="K29" r:id="rId31"/>
-    <hyperlink ref="E30" r:id="rId32"/>
-    <hyperlink ref="K30" r:id="rId33" location="scene-recognition"/>
-    <hyperlink ref="M30" r:id="rId34"/>
-    <hyperlink ref="E31" r:id="rId35"/>
-    <hyperlink ref="K31" r:id="rId36" location="content-moderation"/>
-    <hyperlink ref="M31" r:id="rId37"/>
-    <hyperlink ref="I13" r:id="rId38"/>
-    <hyperlink ref="I14" r:id="rId39"/>
-    <hyperlink ref="I15" r:id="rId40"/>
-    <hyperlink ref="I16" r:id="rId41"/>
-    <hyperlink ref="I17" r:id="rId42"/>
-    <hyperlink ref="I18" r:id="rId43"/>
-    <hyperlink ref="I19" r:id="rId44"/>
-    <hyperlink ref="I27" r:id="rId45"/>
-    <hyperlink ref="I28" r:id="rId46"/>
-    <hyperlink ref="I30" r:id="rId47"/>
-    <hyperlink ref="I31" r:id="rId48"/>
-    <hyperlink ref="G15" r:id="rId49" location="overview"/>
-    <hyperlink ref="G16" r:id="rId50"/>
-    <hyperlink ref="G17" r:id="rId51"/>
-    <hyperlink ref="G18" r:id="rId52"/>
-    <hyperlink ref="G19" r:id="rId53"/>
-    <hyperlink ref="G27" r:id="rId54"/>
-    <hyperlink ref="G28" r:id="rId55"/>
-    <hyperlink ref="G30" r:id="rId56"/>
-    <hyperlink ref="G31" r:id="rId57"/>
+    <hyperlink ref="E14" r:id="rId1"/>
+    <hyperlink ref="K14" r:id="rId2"/>
+    <hyperlink ref="E15" r:id="rId3"/>
+    <hyperlink ref="K15" r:id="rId4"/>
+    <hyperlink ref="M15" r:id="rId5"/>
+    <hyperlink ref="E16" r:id="rId6"/>
+    <hyperlink ref="K16" r:id="rId7"/>
+    <hyperlink ref="E17" r:id="rId8"/>
+    <hyperlink ref="K17" r:id="rId9"/>
+    <hyperlink ref="M17" r:id="rId10"/>
+    <hyperlink ref="K18" r:id="rId11"/>
+    <hyperlink ref="M18" r:id="rId12"/>
+    <hyperlink ref="E19" r:id="rId13"/>
+    <hyperlink ref="K19" r:id="rId14"/>
+    <hyperlink ref="K20" r:id="rId15"/>
+    <hyperlink ref="M20" r:id="rId16"/>
+    <hyperlink ref="K21" r:id="rId17"/>
+    <hyperlink ref="E22" r:id="rId18"/>
+    <hyperlink ref="E23" r:id="rId19"/>
+    <hyperlink ref="E24" r:id="rId20"/>
+    <hyperlink ref="E25" r:id="rId21"/>
+    <hyperlink ref="E26" r:id="rId22"/>
+    <hyperlink ref="E27" r:id="rId23"/>
+    <hyperlink ref="E28" r:id="rId24"/>
+    <hyperlink ref="K28" r:id="rId25" location="facial-recognition"/>
+    <hyperlink ref="M28" r:id="rId26"/>
+    <hyperlink ref="K29" r:id="rId27" location="facial-expression-recognition"/>
+    <hyperlink ref="M29" r:id="rId28"/>
+    <hyperlink ref="K22" r:id="rId29"/>
+    <hyperlink ref="E30" r:id="rId30"/>
+    <hyperlink ref="K30" r:id="rId31"/>
+    <hyperlink ref="E31" r:id="rId32"/>
+    <hyperlink ref="K31" r:id="rId33" location="scene-recognition"/>
+    <hyperlink ref="M31" r:id="rId34"/>
+    <hyperlink ref="E32" r:id="rId35"/>
+    <hyperlink ref="K32" r:id="rId36" location="content-moderation"/>
+    <hyperlink ref="M32" r:id="rId37"/>
+    <hyperlink ref="I14" r:id="rId38"/>
+    <hyperlink ref="I15" r:id="rId39"/>
+    <hyperlink ref="I16" r:id="rId40"/>
+    <hyperlink ref="I17" r:id="rId41"/>
+    <hyperlink ref="I18" r:id="rId42"/>
+    <hyperlink ref="I19" r:id="rId43"/>
+    <hyperlink ref="I20" r:id="rId44"/>
+    <hyperlink ref="I28" r:id="rId45"/>
+    <hyperlink ref="I29" r:id="rId46"/>
+    <hyperlink ref="I31" r:id="rId47"/>
+    <hyperlink ref="I32" r:id="rId48"/>
+    <hyperlink ref="G16" r:id="rId49" location="overview"/>
+    <hyperlink ref="G17" r:id="rId50"/>
+    <hyperlink ref="G18" r:id="rId51"/>
+    <hyperlink ref="G19" r:id="rId52"/>
+    <hyperlink ref="G20" r:id="rId53"/>
+    <hyperlink ref="G28" r:id="rId54"/>
+    <hyperlink ref="G29" r:id="rId55"/>
+    <hyperlink ref="G31" r:id="rId56"/>
+    <hyperlink ref="G32" r:id="rId57"/>
     <hyperlink ref="E3" r:id="rId58"/>
     <hyperlink ref="E4" r:id="rId59"/>
     <hyperlink ref="E5" r:id="rId60"/>
@@ -4559,18 +4656,20 @@
     <hyperlink ref="G7" r:id="rId79" location="overview"/>
     <hyperlink ref="G8" r:id="rId80" location="overview"/>
     <hyperlink ref="G9" r:id="rId81"/>
-    <hyperlink ref="M5" r:id="rId82"/>
-    <hyperlink ref="M32" r:id="rId83"/>
-    <hyperlink ref="I32" r:id="rId84"/>
-    <hyperlink ref="G32" r:id="rId85"/>
-    <hyperlink ref="M33" r:id="rId86"/>
-    <hyperlink ref="I33" r:id="rId87"/>
-    <hyperlink ref="G33" r:id="rId88"/>
-    <hyperlink ref="M7" r:id="rId89"/>
+    <hyperlink ref="M5" r:id="rId82" display="https://aws.amazon.com/translate/"/>
+    <hyperlink ref="M33" r:id="rId83"/>
+    <hyperlink ref="I33" r:id="rId84"/>
+    <hyperlink ref="G33" r:id="rId85"/>
+    <hyperlink ref="M34" r:id="rId86"/>
+    <hyperlink ref="I34" r:id="rId87"/>
+    <hyperlink ref="G34" r:id="rId88"/>
+    <hyperlink ref="M7" r:id="rId89" display="https://aws.amazon.com/lex/"/>
+    <hyperlink ref="E13" r:id="rId90" location=":~:text=The%20Search%20endpoint%20(%2Fsearch),are%20to%20the%20input%20query."/>
+    <hyperlink ref="G13" r:id="rId91"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId90"/>
-  <drawing r:id="rId91"/>
+  <pageSetup orientation="portrait" r:id="rId92"/>
+  <drawing r:id="rId93"/>
 </worksheet>
 </file>
 
@@ -5121,8 +5220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6247,8 +6346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OpenAI/Document/OpenAI.xlsx
+++ b/OpenAI/Document/OpenAI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" tabRatio="721" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" tabRatio="721" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AI_Vendor_List" sheetId="7" r:id="rId1"/>
@@ -3363,9 +3363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>278</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="14" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>5</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="15" spans="1:13" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>8</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>15</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="18" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>22</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>26</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>29</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="21" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>102</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>44</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="23" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>47</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="24" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>49</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="25" spans="1:13" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>109</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="26" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>111</v>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="27" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>113</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="28" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>54</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>57</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="30" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>61</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>78</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="32" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>80</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>241</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>246</v>
@@ -6346,8 +6346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
